--- a/JupyterNotebooks/AvgHW/RGossF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00006983671968</v>
+        <v>0.9998463704868633</v>
       </c>
       <c r="D3">
-        <v>0.9997206704933802</v>
+        <v>1.000186219106026</v>
       </c>
       <c r="E3">
         <v>1.00006983671968</v>
@@ -746,16 +638,16 @@
         <v>1.00006983671968</v>
       </c>
       <c r="G3">
-        <v>1.000186219106026</v>
+        <v>0.9997206704933802</v>
       </c>
       <c r="H3">
-        <v>0.9998463704868633</v>
+        <v>1.00006983671968</v>
       </c>
       <c r="I3">
+        <v>0.9997206704933802</v>
+      </c>
+      <c r="J3">
         <v>1.00006983671968</v>
-      </c>
-      <c r="J3">
-        <v>0.9997206704933802</v>
       </c>
       <c r="K3">
         <v>1.00006983671968</v>
@@ -788,7 +680,7 @@
         <v>0.9999937950408846</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000134816593357</v>
+        <v>0.99970341671383</v>
       </c>
       <c r="D4">
-        <v>0.99946075605054</v>
+        <v>1.000359494927467</v>
       </c>
       <c r="E4">
         <v>1.000134816593357</v>
@@ -808,16 +700,16 @@
         <v>1.000134816593357</v>
       </c>
       <c r="G4">
-        <v>1.000359494927467</v>
+        <v>0.99946075605054</v>
       </c>
       <c r="H4">
-        <v>0.99970341671383</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="I4">
+        <v>0.99946075605054</v>
+      </c>
+      <c r="J4">
         <v>1.000134816593357</v>
-      </c>
-      <c r="J4">
-        <v>0.99946075605054</v>
       </c>
       <c r="K4">
         <v>1.000134816593357</v>
@@ -826,31 +718,31 @@
         <v>1.000134816593357</v>
       </c>
       <c r="M4">
-        <v>0.9997977863219486</v>
+        <v>0.9997977863219487</v>
       </c>
       <c r="N4">
-        <v>0.9997977863219486</v>
+        <v>0.9997977863219487</v>
       </c>
       <c r="O4">
         <v>0.9997663297859091</v>
       </c>
       <c r="P4">
-        <v>0.9999101297457514</v>
+        <v>0.9999101297457517</v>
       </c>
       <c r="Q4">
-        <v>0.9999101297457514</v>
+        <v>0.9999101297457517</v>
       </c>
       <c r="R4">
-        <v>0.999966301457653</v>
+        <v>0.9999663014576531</v>
       </c>
       <c r="S4">
-        <v>0.999966301457653</v>
+        <v>0.9999663014576531</v>
       </c>
       <c r="T4">
         <v>0.9999880195786514</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000258357777225</v>
+        <v>0.9994316329855182</v>
       </c>
       <c r="D5">
-        <v>0.9989666065185321</v>
+        <v>1.000688929603682</v>
       </c>
       <c r="E5">
         <v>1.000258357777225</v>
@@ -870,16 +762,16 @@
         <v>1.000258357777225</v>
       </c>
       <c r="G5">
-        <v>1.000688929603682</v>
+        <v>0.9989666065185321</v>
       </c>
       <c r="H5">
-        <v>0.9994316329855182</v>
+        <v>1.000258357777225</v>
       </c>
       <c r="I5">
+        <v>0.9989666065185321</v>
+      </c>
+      <c r="J5">
         <v>1.000258357777225</v>
-      </c>
-      <c r="J5">
-        <v>0.9989666065185321</v>
       </c>
       <c r="K5">
         <v>1.000258357777225</v>
@@ -912,7 +804,7 @@
         <v>0.9999770404065681</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000378917816772</v>
+        <v>0.999166383210775</v>
       </c>
       <c r="D6">
-        <v>0.9984843447184468</v>
+        <v>1.001010440971597</v>
       </c>
       <c r="E6">
         <v>1.000378917816772</v>
@@ -932,16 +824,16 @@
         <v>1.000378917816772</v>
       </c>
       <c r="G6">
-        <v>1.001010440971597</v>
+        <v>0.9984843447184468</v>
       </c>
       <c r="H6">
-        <v>0.999166383210775</v>
+        <v>1.000378917816772</v>
       </c>
       <c r="I6">
+        <v>0.9984843447184468</v>
+      </c>
+      <c r="J6">
         <v>1.000378917816772</v>
-      </c>
-      <c r="J6">
-        <v>0.9984843447184468</v>
       </c>
       <c r="K6">
         <v>1.000378917816772</v>
@@ -974,7 +866,7 @@
         <v>0.9999663203918555</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000005476162338</v>
+        <v>0.9999879616362546</v>
       </c>
       <c r="D7">
-        <v>0.9999781083967759</v>
+        <v>1.000014593687528</v>
       </c>
       <c r="E7">
         <v>1.000005476162338</v>
@@ -994,16 +886,16 @@
         <v>1.000005476162338</v>
       </c>
       <c r="G7">
-        <v>1.000014593687528</v>
+        <v>0.9999781083967759</v>
       </c>
       <c r="H7">
-        <v>0.9999879616362546</v>
+        <v>1.000005476162338</v>
       </c>
       <c r="I7">
+        <v>0.9999781083967759</v>
+      </c>
+      <c r="J7">
         <v>1.000005476162338</v>
-      </c>
-      <c r="J7">
-        <v>0.9999781083967759</v>
       </c>
       <c r="K7">
         <v>1.000005476162338</v>
@@ -1036,7 +928,7 @@
         <v>0.9999995153679291</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000012392086552</v>
+        <v>0.9999727465587491</v>
       </c>
       <c r="D8">
-        <v>0.9999504443989664</v>
+        <v>1.00003303634925</v>
       </c>
       <c r="E8">
         <v>1.000012392086552</v>
@@ -1056,16 +948,16 @@
         <v>1.000012392086552</v>
       </c>
       <c r="G8">
-        <v>1.00003303634925</v>
+        <v>0.9999504443989664</v>
       </c>
       <c r="H8">
-        <v>0.9999727465587489</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="I8">
+        <v>0.9999504443989664</v>
+      </c>
+      <c r="J8">
         <v>1.000012392086552</v>
-      </c>
-      <c r="J8">
-        <v>0.9999504443989664</v>
       </c>
       <c r="K8">
         <v>1.000012392086552</v>
@@ -1074,31 +966,31 @@
         <v>1.000012392086552</v>
       </c>
       <c r="M8">
-        <v>0.9999814182427592</v>
+        <v>0.9999814182427591</v>
       </c>
       <c r="N8">
-        <v>0.9999814182427592</v>
+        <v>0.9999814182427591</v>
       </c>
       <c r="O8">
         <v>0.9999785276814225</v>
       </c>
       <c r="P8">
-        <v>0.9999917428573569</v>
+        <v>0.9999917428573566</v>
       </c>
       <c r="Q8">
-        <v>0.9999917428573569</v>
+        <v>0.9999917428573566</v>
       </c>
       <c r="R8">
-        <v>0.9999969051646557</v>
+        <v>0.9999969051646553</v>
       </c>
       <c r="S8">
-        <v>0.9999969051646557</v>
+        <v>0.9999969051646553</v>
       </c>
       <c r="T8">
-        <v>0.999998900594437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999989005944369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,10 +998,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000021197473843</v>
+        <v>0.9999533752722021</v>
       </c>
       <c r="D9">
-        <v>0.9999152243449151</v>
+        <v>1.000056515940415</v>
       </c>
       <c r="E9">
         <v>1.000021197473843</v>
@@ -1118,16 +1010,16 @@
         <v>1.000021197473843</v>
       </c>
       <c r="G9">
-        <v>1.000056515940415</v>
+        <v>0.9999152243449151</v>
       </c>
       <c r="H9">
-        <v>0.9999533752722021</v>
+        <v>1.000021197473843</v>
       </c>
       <c r="I9">
+        <v>0.9999152243449151</v>
+      </c>
+      <c r="J9">
         <v>1.000021197473843</v>
-      </c>
-      <c r="J9">
-        <v>0.9999152243449151</v>
       </c>
       <c r="K9">
         <v>1.000021197473843</v>
@@ -1160,7 +1052,7 @@
         <v>0.9999981179965101</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,10 +1060,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000042530523408</v>
+        <v>0.9999064402371227</v>
       </c>
       <c r="D10">
-        <v>0.999829887938349</v>
+        <v>1.000113406949074</v>
       </c>
       <c r="E10">
         <v>1.000042530523408</v>
@@ -1180,16 +1072,16 @@
         <v>1.000042530523408</v>
       </c>
       <c r="G10">
-        <v>1.000113406949074</v>
+        <v>0.999829887938349</v>
       </c>
       <c r="H10">
-        <v>0.9999064402371227</v>
+        <v>1.000042530523408</v>
       </c>
       <c r="I10">
+        <v>0.999829887938349</v>
+      </c>
+      <c r="J10">
         <v>1.000042530523408</v>
-      </c>
-      <c r="J10">
-        <v>0.999829887938349</v>
       </c>
       <c r="K10">
         <v>1.000042530523408</v>
@@ -1198,31 +1090,31 @@
         <v>1.000042530523408</v>
       </c>
       <c r="M10">
-        <v>0.9999362092308786</v>
+        <v>0.9999362092308788</v>
       </c>
       <c r="N10">
-        <v>0.9999362092308786</v>
+        <v>0.9999362092308788</v>
       </c>
       <c r="O10">
         <v>0.99992628623296</v>
       </c>
       <c r="P10">
-        <v>0.9999716496617218</v>
+        <v>0.999971649661722</v>
       </c>
       <c r="Q10">
-        <v>0.9999716496617218</v>
+        <v>0.999971649661722</v>
       </c>
       <c r="R10">
-        <v>0.9999893698771434</v>
+        <v>0.9999893698771436</v>
       </c>
       <c r="S10">
-        <v>0.9999893698771434</v>
+        <v>0.9999893698771436</v>
       </c>
       <c r="T10">
-        <v>0.999996221115795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9999962211157953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,10 +1122,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000076706898965</v>
+        <v>0.9998312534784507</v>
       </c>
       <c r="D11">
-        <v>0.9996931884475553</v>
+        <v>1.000204542845307</v>
       </c>
       <c r="E11">
         <v>1.000076706898965</v>
@@ -1242,16 +1134,16 @@
         <v>1.000076706898965</v>
       </c>
       <c r="G11">
-        <v>1.000204542845307</v>
+        <v>0.9996931884475553</v>
       </c>
       <c r="H11">
-        <v>0.9998312534784505</v>
+        <v>1.000076706898965</v>
       </c>
       <c r="I11">
+        <v>0.9996931884475553</v>
+      </c>
+      <c r="J11">
         <v>1.000076706898965</v>
-      </c>
-      <c r="J11">
-        <v>0.9996931884475553</v>
       </c>
       <c r="K11">
         <v>1.000076706898965</v>
@@ -1284,7 +1176,7 @@
         <v>0.9999931842447013</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000120094216191</v>
+        <v>0.9997357961980129</v>
       </c>
       <c r="D12">
-        <v>0.9995196357321919</v>
+        <v>1.000320241021014</v>
       </c>
       <c r="E12">
         <v>1.000120094216191</v>
@@ -1304,16 +1196,16 @@
         <v>1.000120094216191</v>
       </c>
       <c r="G12">
-        <v>1.000320241021014</v>
+        <v>0.9995196357321919</v>
       </c>
       <c r="H12">
-        <v>0.9997357961980129</v>
+        <v>1.000120094216191</v>
       </c>
       <c r="I12">
+        <v>0.9995196357321919</v>
+      </c>
+      <c r="J12">
         <v>1.000120094216191</v>
-      </c>
-      <c r="J12">
-        <v>0.9995196357321919</v>
       </c>
       <c r="K12">
         <v>1.000120094216191</v>
@@ -1346,7 +1238,7 @@
         <v>0.9999893259332988</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,10 +1246,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000032580109521</v>
+        <v>0.9999283311509325</v>
       </c>
       <c r="D13">
-        <v>0.9998696851522245</v>
+        <v>1.000086877963037</v>
       </c>
       <c r="E13">
         <v>1.000032580109521</v>
@@ -1366,16 +1258,16 @@
         <v>1.000032580109521</v>
       </c>
       <c r="G13">
-        <v>1.000086877963037</v>
+        <v>0.9998696851522245</v>
       </c>
       <c r="H13">
-        <v>0.9999283311509325</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="I13">
+        <v>0.9998696851522245</v>
+      </c>
+      <c r="J13">
         <v>1.000032580109521</v>
-      </c>
-      <c r="J13">
-        <v>0.9998696851522245</v>
       </c>
       <c r="K13">
         <v>1.000032580109521</v>
@@ -1408,7 +1300,7 @@
         <v>0.9999971057657926</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,10 +1308,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.008932394824936</v>
+        <v>0.9803487537850353</v>
       </c>
       <c r="D14">
-        <v>0.9642704642877111</v>
+        <v>1.023819690784401</v>
       </c>
       <c r="E14">
         <v>1.008932394824936</v>
@@ -1428,16 +1320,16 @@
         <v>1.008932394824936</v>
       </c>
       <c r="G14">
-        <v>1.023819690784401</v>
+        <v>0.9642704642877111</v>
       </c>
       <c r="H14">
-        <v>0.9803487537850353</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="I14">
+        <v>0.9642704642877111</v>
+      </c>
+      <c r="J14">
         <v>1.008932394824936</v>
-      </c>
-      <c r="J14">
-        <v>0.9642704642877111</v>
       </c>
       <c r="K14">
         <v>1.008932394824936</v>
@@ -1446,13 +1338,13 @@
         <v>1.008932394824936</v>
       </c>
       <c r="M14">
-        <v>0.9866014295563236</v>
+        <v>0.9866014295563237</v>
       </c>
       <c r="N14">
-        <v>0.9866014295563236</v>
+        <v>0.9866014295563237</v>
       </c>
       <c r="O14">
-        <v>0.9845172042992275</v>
+        <v>0.9845172042992276</v>
       </c>
       <c r="P14">
         <v>0.9940450846458612</v>
@@ -1470,7 +1362,7 @@
         <v>0.9992060155553261</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,10 +1370,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002398478429737</v>
+        <v>0.9947233633050211</v>
       </c>
       <c r="D15">
-        <v>0.9904061168911404</v>
+        <v>1.006395918014905</v>
       </c>
       <c r="E15">
         <v>1.002398478429737</v>
@@ -1490,16 +1382,16 @@
         <v>1.002398478429737</v>
       </c>
       <c r="G15">
-        <v>1.006395918014905</v>
+        <v>0.9904061168911404</v>
       </c>
       <c r="H15">
-        <v>0.9947233633050212</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="I15">
+        <v>0.9904061168911404</v>
+      </c>
+      <c r="J15">
         <v>1.002398478429737</v>
-      </c>
-      <c r="J15">
-        <v>0.9904061168911404</v>
       </c>
       <c r="K15">
         <v>1.002398478429737</v>
@@ -1532,7 +1424,7 @@
         <v>0.9997868055833797</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000291638858</v>
+        <v>0.9970029945653676</v>
       </c>
       <c r="D16">
-        <v>0.9999988472115859</v>
+        <v>1.003632739273272</v>
       </c>
       <c r="E16">
-        <v>1.000000291638858</v>
+        <v>1.001362286417193</v>
       </c>
       <c r="F16">
-        <v>1.000000291638858</v>
+        <v>1.001362286417193</v>
       </c>
       <c r="G16">
-        <v>1.000000767801654</v>
+        <v>0.9945508985338861</v>
       </c>
       <c r="H16">
-        <v>0.9999993678410802</v>
+        <v>1.001362286417193</v>
       </c>
       <c r="I16">
-        <v>1.000000291638858</v>
+        <v>0.9945508985338861</v>
       </c>
       <c r="J16">
-        <v>0.9999988472115859</v>
+        <v>1.001362286417193</v>
       </c>
       <c r="K16">
-        <v>1.000000291638858</v>
+        <v>1.001362286417193</v>
       </c>
       <c r="L16">
-        <v>1.000000291638858</v>
+        <v>1.001362286417193</v>
       </c>
       <c r="M16">
-        <v>0.9999995694252218</v>
+        <v>0.9979565924755396</v>
       </c>
       <c r="N16">
-        <v>0.9999995694252218</v>
+        <v>0.9979565924755396</v>
       </c>
       <c r="O16">
-        <v>0.999999502230508</v>
+        <v>0.9976387265054822</v>
       </c>
       <c r="P16">
-        <v>0.9999998101631005</v>
+        <v>0.9990918237894242</v>
       </c>
       <c r="Q16">
-        <v>0.9999998101631005</v>
+        <v>0.9990918237894242</v>
       </c>
       <c r="R16">
-        <v>0.9999999305320397</v>
+        <v>0.9996594394463665</v>
       </c>
       <c r="S16">
-        <v>0.9999999305320397</v>
+        <v>0.9996594394463665</v>
       </c>
       <c r="T16">
-        <v>0.9999999762951489</v>
+        <v>0.9998789152706843</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000006110787222</v>
+        <v>0.9975459287487093</v>
       </c>
       <c r="D17">
-        <v>0.9999755728655251</v>
+        <v>1.002974636180215</v>
       </c>
       <c r="E17">
-        <v>1.000006110787222</v>
+        <v>1.001115495683423</v>
       </c>
       <c r="F17">
-        <v>1.000006110787222</v>
+        <v>1.001115495683423</v>
       </c>
       <c r="G17">
-        <v>1.000016284015719</v>
+        <v>0.9955380509391279</v>
       </c>
       <c r="H17">
-        <v>0.9999865667920821</v>
+        <v>1.001115495683423</v>
       </c>
       <c r="I17">
-        <v>1.000006110787222</v>
+        <v>0.9955380509391279</v>
       </c>
       <c r="J17">
-        <v>0.9999755728655251</v>
+        <v>1.001115495683423</v>
       </c>
       <c r="K17">
-        <v>1.000006110787222</v>
+        <v>1.001115495683423</v>
       </c>
       <c r="L17">
-        <v>1.000006110787222</v>
+        <v>1.001115495683423</v>
       </c>
       <c r="M17">
-        <v>0.9999908418263737</v>
+        <v>0.9983267733112753</v>
       </c>
       <c r="N17">
-        <v>0.9999908418263737</v>
+        <v>0.9983267733112753</v>
       </c>
       <c r="O17">
-        <v>0.9999894168149431</v>
+        <v>0.99806649179042</v>
       </c>
       <c r="P17">
-        <v>0.9999959314799899</v>
+        <v>0.9992563474353244</v>
       </c>
       <c r="Q17">
-        <v>0.9999959314799899</v>
+        <v>0.9992563474353244</v>
       </c>
       <c r="R17">
-        <v>0.9999984763067979</v>
+        <v>0.999721134497349</v>
       </c>
       <c r="S17">
-        <v>0.9999984763067979</v>
+        <v>0.999721134497349</v>
       </c>
       <c r="T17">
-        <v>0.9999994593391653</v>
+        <v>0.9999008504863868</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000021500551281</v>
+        <v>0.9986343146137313</v>
       </c>
       <c r="D18">
-        <v>0.9999139976177639</v>
+        <v>1.001655376692158</v>
       </c>
       <c r="E18">
-        <v>1.000021500551281</v>
+        <v>1.000620771041205</v>
       </c>
       <c r="F18">
-        <v>1.000021500551281</v>
+        <v>1.000620771041205</v>
       </c>
       <c r="G18">
-        <v>1.00005733345853</v>
+        <v>0.9975169350005009</v>
       </c>
       <c r="H18">
-        <v>0.999952698966476</v>
+        <v>1.000620771041205</v>
       </c>
       <c r="I18">
-        <v>1.000021500551281</v>
+        <v>0.9975169350005009</v>
       </c>
       <c r="J18">
-        <v>0.9999139976177639</v>
+        <v>1.000620771041205</v>
       </c>
       <c r="K18">
-        <v>1.000021500551281</v>
+        <v>1.000620771041205</v>
       </c>
       <c r="L18">
-        <v>1.000021500551281</v>
+        <v>1.000620771041205</v>
       </c>
       <c r="M18">
-        <v>0.9999677490845225</v>
+        <v>0.999068853020853</v>
       </c>
       <c r="N18">
-        <v>0.9999677490845225</v>
+        <v>0.999068853020853</v>
       </c>
       <c r="O18">
-        <v>0.9999627323785069</v>
+        <v>0.9989240068851458</v>
       </c>
       <c r="P18">
-        <v>0.9999856662401087</v>
+        <v>0.9995861590276371</v>
       </c>
       <c r="Q18">
-        <v>0.9999856662401087</v>
+        <v>0.9995861590276371</v>
       </c>
       <c r="R18">
-        <v>0.9999946248179018</v>
+        <v>0.9998448120310292</v>
       </c>
       <c r="S18">
-        <v>0.9999946248179018</v>
+        <v>0.9998448120310292</v>
       </c>
       <c r="T18">
-        <v>0.9999980886161023</v>
+        <v>0.9999448232383342</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9985954062643606</v>
+      </c>
+      <c r="D19">
+        <v>1.001702540444135</v>
+      </c>
+      <c r="E19">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="F19">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="G19">
+        <v>0.9974461938938207</v>
+      </c>
+      <c r="H19">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="I19">
+        <v>0.9974461938938207</v>
+      </c>
+      <c r="J19">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="K19">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="L19">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="M19">
+        <v>0.9990423268759592</v>
+      </c>
+      <c r="N19">
+        <v>0.9990423268759592</v>
+      </c>
+      <c r="O19">
+        <v>0.9988933533387597</v>
+      </c>
+      <c r="P19">
+        <v>0.9995743712033386</v>
+      </c>
+      <c r="Q19">
+        <v>0.9995743712033386</v>
+      </c>
+      <c r="R19">
+        <v>0.9998403933670283</v>
+      </c>
+      <c r="S19">
+        <v>0.9998403933670283</v>
+      </c>
+      <c r="T19">
+        <v>0.9999432533627682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999993678410802</v>
+      </c>
+      <c r="D20">
+        <v>1.000000767801654</v>
+      </c>
+      <c r="E20">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="F20">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="G20">
+        <v>0.9999988472115859</v>
+      </c>
+      <c r="H20">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="I20">
+        <v>0.9999988472115859</v>
+      </c>
+      <c r="J20">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="K20">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="L20">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="M20">
+        <v>0.9999995694252218</v>
+      </c>
+      <c r="N20">
+        <v>0.9999995694252218</v>
+      </c>
+      <c r="O20">
+        <v>0.999999502230508</v>
+      </c>
+      <c r="P20">
+        <v>0.9999998101631005</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999998101631005</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999305320397</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999305320397</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999762951489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999865667920821</v>
+      </c>
+      <c r="D21">
+        <v>1.000016284015719</v>
+      </c>
+      <c r="E21">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="F21">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="G21">
+        <v>0.9999755728655251</v>
+      </c>
+      <c r="H21">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="I21">
+        <v>0.9999755728655251</v>
+      </c>
+      <c r="J21">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="K21">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="L21">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="M21">
+        <v>0.9999908418263738</v>
+      </c>
+      <c r="N21">
+        <v>0.9999908418263738</v>
+      </c>
+      <c r="O21">
+        <v>0.9999894168149432</v>
+      </c>
+      <c r="P21">
+        <v>0.9999959314799899</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999959314799899</v>
+      </c>
+      <c r="R21">
+        <v>0.9999984763067981</v>
+      </c>
+      <c r="S21">
+        <v>0.9999984763067981</v>
+      </c>
+      <c r="T21">
+        <v>0.9999994593391657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.999952698966476</v>
+      </c>
+      <c r="D22">
+        <v>1.00005733345853</v>
+      </c>
+      <c r="E22">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="F22">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="G22">
+        <v>0.9999139976177639</v>
+      </c>
+      <c r="H22">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="I22">
+        <v>0.9999139976177639</v>
+      </c>
+      <c r="J22">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="K22">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="L22">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="M22">
+        <v>0.9999677490845225</v>
+      </c>
+      <c r="N22">
+        <v>0.9999677490845225</v>
+      </c>
+      <c r="O22">
+        <v>0.9999627323785069</v>
+      </c>
+      <c r="P22">
+        <v>0.9999856662401087</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999856662401087</v>
+      </c>
+      <c r="R22">
+        <v>0.9999946248179018</v>
+      </c>
+      <c r="S22">
+        <v>0.9999946248179018</v>
+      </c>
+      <c r="T22">
+        <v>0.9999980886161023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9998891849681729</v>
+      </c>
+      <c r="D23">
+        <v>1.000134320288022</v>
+      </c>
+      <c r="E23">
         <v>1.000050377870045</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.000050377870045</v>
+      </c>
+      <c r="G23">
         <v>0.9997985214434387</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>1.000050377870045</v>
       </c>
-      <c r="F19">
+      <c r="I23">
+        <v>0.9997985214434387</v>
+      </c>
+      <c r="J23">
         <v>1.000050377870045</v>
       </c>
-      <c r="G19">
-        <v>1.000134320288022</v>
-      </c>
-      <c r="H19">
-        <v>0.9998891849681729</v>
-      </c>
-      <c r="I19">
+      <c r="K23">
         <v>1.000050377870045</v>
       </c>
-      <c r="J19">
-        <v>0.9997985214434387</v>
-      </c>
-      <c r="K19">
+      <c r="L23">
         <v>1.000050377870045</v>
       </c>
-      <c r="L19">
-        <v>1.000050377870045</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9999244496567419</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9999244496567419</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9999126947605522</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999664257278429</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999664257278429</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999874137633934</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999874137633934</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999955267182946</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/RGossF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998463704868633</v>
+        <v>0.9985915733357362</v>
       </c>
       <c r="D3">
-        <v>1.000186219106026</v>
+        <v>1.001707187132565</v>
       </c>
       <c r="E3">
-        <v>1.00006983671968</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="F3">
-        <v>1.00006983671968</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="G3">
-        <v>0.9997206704933802</v>
+        <v>0.9974392217363117</v>
       </c>
       <c r="H3">
-        <v>1.00006983671968</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="I3">
-        <v>0.9997206704933802</v>
+        <v>0.9974392217363117</v>
       </c>
       <c r="J3">
-        <v>1.00006983671968</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="K3">
-        <v>1.00006983671968</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="L3">
-        <v>1.00006983671968</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="M3">
-        <v>0.99989525360653</v>
+        <v>0.99903970982709</v>
       </c>
       <c r="N3">
-        <v>0.99989525360653</v>
+        <v>0.99903970982709</v>
       </c>
       <c r="O3">
-        <v>0.9998789592333077</v>
+        <v>0.9988903309966387</v>
       </c>
       <c r="P3">
-        <v>0.9999534479775799</v>
+        <v>0.9995732058573493</v>
       </c>
       <c r="Q3">
-        <v>0.9999534479775799</v>
+        <v>0.9995732058573493</v>
       </c>
       <c r="R3">
-        <v>0.9999825451631048</v>
+        <v>0.9998399538724791</v>
       </c>
       <c r="S3">
-        <v>0.9999825451631048</v>
+        <v>0.9998399538724791</v>
       </c>
       <c r="T3">
-        <v>0.9999937950408846</v>
+        <v>0.9999430959930362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.99970341671383</v>
+        <v>0.9986326199813691</v>
       </c>
       <c r="D4">
-        <v>1.000359494927467</v>
+        <v>1.001657433015285</v>
       </c>
       <c r="E4">
-        <v>1.000134816593357</v>
+        <v>1.000621540253444</v>
       </c>
       <c r="F4">
-        <v>1.000134816593357</v>
+        <v>1.000621540253444</v>
       </c>
       <c r="G4">
-        <v>0.99946075605054</v>
+        <v>0.9975138519455847</v>
       </c>
       <c r="H4">
-        <v>1.000134816593357</v>
+        <v>1.000621540253444</v>
       </c>
       <c r="I4">
-        <v>0.99946075605054</v>
+        <v>0.9975138519455847</v>
       </c>
       <c r="J4">
-        <v>1.000134816593357</v>
+        <v>1.000621540253444</v>
       </c>
       <c r="K4">
-        <v>1.000134816593357</v>
+        <v>1.000621540253444</v>
       </c>
       <c r="L4">
-        <v>1.000134816593357</v>
+        <v>1.000621540253444</v>
       </c>
       <c r="M4">
-        <v>0.9997977863219487</v>
+        <v>0.9990676960995144</v>
       </c>
       <c r="N4">
-        <v>0.9997977863219487</v>
+        <v>0.9990676960995144</v>
       </c>
       <c r="O4">
-        <v>0.9997663297859091</v>
+        <v>0.9989226707267993</v>
       </c>
       <c r="P4">
-        <v>0.9999101297457517</v>
+        <v>0.9995856441508243</v>
       </c>
       <c r="Q4">
-        <v>0.9999101297457517</v>
+        <v>0.9995856441508243</v>
       </c>
       <c r="R4">
-        <v>0.9999663014576531</v>
+        <v>0.9998446181764793</v>
       </c>
       <c r="S4">
-        <v>0.9999663014576531</v>
+        <v>0.9998446181764793</v>
       </c>
       <c r="T4">
-        <v>0.9999880195786514</v>
+        <v>0.9999447542837618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9994316329855182</v>
+        <v>0.9985010958221026</v>
       </c>
       <c r="D5">
-        <v>1.000688929603682</v>
+        <v>1.001816859784365</v>
       </c>
       <c r="E5">
-        <v>1.000258357777225</v>
+        <v>1.00068132716981</v>
       </c>
       <c r="F5">
-        <v>1.000258357777225</v>
+        <v>1.00068132716981</v>
       </c>
       <c r="G5">
-        <v>0.9989666065185321</v>
+        <v>0.9972747158221025</v>
       </c>
       <c r="H5">
-        <v>1.000258357777225</v>
+        <v>1.00068132716981</v>
       </c>
       <c r="I5">
-        <v>0.9989666065185321</v>
+        <v>0.9972747158221025</v>
       </c>
       <c r="J5">
-        <v>1.000258357777225</v>
+        <v>1.00068132716981</v>
       </c>
       <c r="K5">
-        <v>1.000258357777225</v>
+        <v>1.00068132716981</v>
       </c>
       <c r="L5">
-        <v>1.000258357777225</v>
+        <v>1.00068132716981</v>
       </c>
       <c r="M5">
-        <v>0.9996124821478788</v>
+        <v>0.9989780214959564</v>
       </c>
       <c r="N5">
-        <v>0.9996124821478788</v>
+        <v>0.9989780214959564</v>
       </c>
       <c r="O5">
-        <v>0.9995521990937585</v>
+        <v>0.9988190462713384</v>
       </c>
       <c r="P5">
-        <v>0.9998277740243277</v>
+        <v>0.9995457900539076</v>
       </c>
       <c r="Q5">
-        <v>0.9998277740243277</v>
+        <v>0.9995457900539076</v>
       </c>
       <c r="R5">
-        <v>0.9999354199625521</v>
+        <v>0.9998296743328834</v>
       </c>
       <c r="S5">
-        <v>0.9999354199625521</v>
+        <v>0.9998296743328834</v>
       </c>
       <c r="T5">
-        <v>0.9999770404065681</v>
+        <v>0.9999394421563336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.999166383210775</v>
+        <v>0.9984017203977263</v>
       </c>
       <c r="D6">
-        <v>1.001010440971597</v>
+        <v>1.001937319659091</v>
       </c>
       <c r="E6">
-        <v>1.000378917816772</v>
+        <v>1.000726499943182</v>
       </c>
       <c r="F6">
-        <v>1.000378917816772</v>
+        <v>1.000726499943182</v>
       </c>
       <c r="G6">
-        <v>0.9984843447184468</v>
+        <v>0.9970940400568172</v>
       </c>
       <c r="H6">
-        <v>1.000378917816772</v>
+        <v>1.000726499943182</v>
       </c>
       <c r="I6">
-        <v>0.9984843447184468</v>
+        <v>0.9970940400568172</v>
       </c>
       <c r="J6">
-        <v>1.000378917816772</v>
+        <v>1.000726499943182</v>
       </c>
       <c r="K6">
-        <v>1.000378917816772</v>
+        <v>1.000726499943182</v>
       </c>
       <c r="L6">
-        <v>1.000378917816772</v>
+        <v>1.000726499943182</v>
       </c>
       <c r="M6">
-        <v>0.9994316312676093</v>
+        <v>0.9989102699999994</v>
       </c>
       <c r="N6">
-        <v>0.9994316312676093</v>
+        <v>0.9989102699999994</v>
       </c>
       <c r="O6">
-        <v>0.9993432152486644</v>
+        <v>0.9987407534659084</v>
       </c>
       <c r="P6">
-        <v>0.9997473934506633</v>
+        <v>0.9995156799810602</v>
       </c>
       <c r="Q6">
-        <v>0.9997473934506633</v>
+        <v>0.9995156799810602</v>
       </c>
       <c r="R6">
-        <v>0.9999052745421904</v>
+        <v>0.9998183849715906</v>
       </c>
       <c r="S6">
-        <v>0.9999052745421904</v>
+        <v>0.9998183849715906</v>
       </c>
       <c r="T6">
-        <v>0.9999663203918555</v>
+        <v>0.9999354299905301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999879616362546</v>
+        <v>1.015391647967033</v>
       </c>
       <c r="D7">
-        <v>1.000014593687528</v>
+        <v>0.9813434515259861</v>
       </c>
       <c r="E7">
-        <v>1.000005476162338</v>
+        <v>0.9930037943917577</v>
       </c>
       <c r="F7">
-        <v>1.000005476162338</v>
+        <v>0.9930037943917577</v>
       </c>
       <c r="G7">
-        <v>0.9999781083967759</v>
+        <v>1.027984828549407</v>
       </c>
       <c r="H7">
-        <v>1.000005476162338</v>
+        <v>0.9930037943917577</v>
       </c>
       <c r="I7">
-        <v>0.9999781083967759</v>
+        <v>1.027984828549407</v>
       </c>
       <c r="J7">
-        <v>1.000005476162338</v>
+        <v>0.9930037943917577</v>
       </c>
       <c r="K7">
-        <v>1.000005476162338</v>
+        <v>0.9930037943917577</v>
       </c>
       <c r="L7">
-        <v>1.000005476162338</v>
+        <v>0.9930037943917577</v>
       </c>
       <c r="M7">
-        <v>0.9999917922795571</v>
+        <v>1.010494311470582</v>
       </c>
       <c r="N7">
-        <v>0.9999917922795571</v>
+        <v>1.010494311470582</v>
       </c>
       <c r="O7">
-        <v>0.9999905153984563</v>
+        <v>1.012126756969399</v>
       </c>
       <c r="P7">
-        <v>0.9999963535738177</v>
+        <v>1.004664139110974</v>
       </c>
       <c r="Q7">
-        <v>0.9999963535738177</v>
+        <v>1.004664139110974</v>
       </c>
       <c r="R7">
-        <v>0.9999986342209479</v>
+        <v>1.00174905293117</v>
       </c>
       <c r="S7">
-        <v>0.9999986342209479</v>
+        <v>1.00174905293117</v>
       </c>
       <c r="T7">
-        <v>0.9999995153679291</v>
+        <v>1.00062188520295</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999727465587491</v>
+        <v>1.015252498150222</v>
       </c>
       <c r="D8">
-        <v>1.00003303634925</v>
+        <v>0.9815121182034636</v>
       </c>
       <c r="E8">
-        <v>1.000012392086552</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="F8">
-        <v>1.000012392086552</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="G8">
-        <v>0.9999504443989664</v>
+        <v>1.027731828751026</v>
       </c>
       <c r="H8">
-        <v>1.000012392086552</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="I8">
-        <v>0.9999504443989664</v>
+        <v>1.027731828751026</v>
       </c>
       <c r="J8">
-        <v>1.000012392086552</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="K8">
-        <v>1.000012392086552</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="L8">
-        <v>1.000012392086552</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="M8">
-        <v>0.9999814182427591</v>
+        <v>1.010399436534468</v>
       </c>
       <c r="N8">
-        <v>0.9999814182427591</v>
+        <v>1.010399436534468</v>
       </c>
       <c r="O8">
-        <v>0.9999785276814225</v>
+        <v>1.012017123739719</v>
       </c>
       <c r="P8">
-        <v>0.9999917428573566</v>
+        <v>1.004621972462282</v>
       </c>
       <c r="Q8">
-        <v>0.9999917428573566</v>
+        <v>1.004621972462282</v>
       </c>
       <c r="R8">
-        <v>0.9999969051646553</v>
+        <v>1.001733240426189</v>
       </c>
       <c r="S8">
-        <v>0.9999969051646553</v>
+        <v>1.001733240426189</v>
       </c>
       <c r="T8">
-        <v>0.9999989005944369</v>
+        <v>1.00061626300974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999533752722021</v>
+        <v>1.015148935171167</v>
       </c>
       <c r="D9">
-        <v>1.000056515940415</v>
+        <v>0.981637649321216</v>
       </c>
       <c r="E9">
-        <v>1.000021197473843</v>
+        <v>0.993114118424101</v>
       </c>
       <c r="F9">
-        <v>1.000021197473843</v>
+        <v>0.993114118424101</v>
       </c>
       <c r="G9">
-        <v>0.9999152243449151</v>
+        <v>1.02754353230219</v>
       </c>
       <c r="H9">
-        <v>1.000021197473843</v>
+        <v>0.993114118424101</v>
       </c>
       <c r="I9">
-        <v>0.9999152243449151</v>
+        <v>1.02754353230219</v>
       </c>
       <c r="J9">
-        <v>1.000021197473843</v>
+        <v>0.993114118424101</v>
       </c>
       <c r="K9">
-        <v>1.000021197473843</v>
+        <v>0.993114118424101</v>
       </c>
       <c r="L9">
-        <v>1.000021197473843</v>
+        <v>0.993114118424101</v>
       </c>
       <c r="M9">
-        <v>0.9999682109093788</v>
+        <v>1.010328825363145</v>
       </c>
       <c r="N9">
-        <v>0.9999682109093788</v>
+        <v>1.010328825363145</v>
       </c>
       <c r="O9">
-        <v>0.9999632656969867</v>
+        <v>1.011935528632486</v>
       </c>
       <c r="P9">
-        <v>0.9999858730975335</v>
+        <v>1.004590589716797</v>
       </c>
       <c r="Q9">
-        <v>0.9999858730975335</v>
+        <v>1.004590589716797</v>
       </c>
       <c r="R9">
-        <v>0.9999947041916109</v>
+        <v>1.001721471893623</v>
       </c>
       <c r="S9">
-        <v>0.9999947041916109</v>
+        <v>1.001721471893623</v>
       </c>
       <c r="T9">
-        <v>0.9999981179965101</v>
+        <v>1.000612078677813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999064402371227</v>
+        <v>1.014765064569316</v>
       </c>
       <c r="D10">
-        <v>1.000113406949074</v>
+        <v>0.9821029479156663</v>
       </c>
       <c r="E10">
-        <v>1.000042530523408</v>
+        <v>0.9932886051718748</v>
       </c>
       <c r="F10">
-        <v>1.000042530523408</v>
+        <v>0.9932886051718748</v>
       </c>
       <c r="G10">
-        <v>0.999829887938349</v>
+        <v>1.026845585338536</v>
       </c>
       <c r="H10">
-        <v>1.000042530523408</v>
+        <v>0.9932886051718748</v>
       </c>
       <c r="I10">
-        <v>0.999829887938349</v>
+        <v>1.026845585338536</v>
       </c>
       <c r="J10">
-        <v>1.000042530523408</v>
+        <v>0.9932886051718748</v>
       </c>
       <c r="K10">
-        <v>1.000042530523408</v>
+        <v>0.9932886051718748</v>
       </c>
       <c r="L10">
-        <v>1.000042530523408</v>
+        <v>0.9932886051718748</v>
       </c>
       <c r="M10">
-        <v>0.9999362092308788</v>
+        <v>1.010067095255206</v>
       </c>
       <c r="N10">
-        <v>0.9999362092308788</v>
+        <v>1.010067095255206</v>
       </c>
       <c r="O10">
-        <v>0.99992628623296</v>
+        <v>1.011633085026576</v>
       </c>
       <c r="P10">
-        <v>0.999971649661722</v>
+        <v>1.004474265227429</v>
       </c>
       <c r="Q10">
-        <v>0.999971649661722</v>
+        <v>1.004474265227429</v>
       </c>
       <c r="R10">
-        <v>0.9999893698771436</v>
+        <v>1.00167785021354</v>
       </c>
       <c r="S10">
-        <v>0.9999893698771436</v>
+        <v>1.00167785021354</v>
       </c>
       <c r="T10">
-        <v>0.9999962211157953</v>
+        <v>1.000596568889857</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9998312534784507</v>
+        <v>0.9998974180293286</v>
       </c>
       <c r="D11">
-        <v>1.000204542845307</v>
+        <v>1.000124343346317</v>
       </c>
       <c r="E11">
-        <v>1.000076706898965</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="F11">
-        <v>1.000076706898965</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="G11">
-        <v>0.9996931884475553</v>
+        <v>0.9998134838890762</v>
       </c>
       <c r="H11">
-        <v>1.000076706898965</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="I11">
-        <v>0.9996931884475553</v>
+        <v>0.9998134838890762</v>
       </c>
       <c r="J11">
-        <v>1.000076706898965</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="K11">
-        <v>1.000076706898965</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="L11">
-        <v>1.000076706898965</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="M11">
-        <v>0.9998849476732601</v>
+        <v>0.9999300586703469</v>
       </c>
       <c r="N11">
-        <v>0.9998849476732601</v>
+        <v>0.9999300586703469</v>
       </c>
       <c r="O11">
-        <v>0.9998670496083236</v>
+        <v>0.9999191784566741</v>
       </c>
       <c r="P11">
-        <v>0.9999488674151618</v>
+        <v>0.9999689169307704</v>
       </c>
       <c r="Q11">
-        <v>0.9999488674151618</v>
+        <v>0.9999689169307704</v>
       </c>
       <c r="R11">
-        <v>0.9999808272861126</v>
+        <v>0.9999883460609822</v>
       </c>
       <c r="S11">
-        <v>0.9999808272861126</v>
+        <v>0.9999883460609822</v>
       </c>
       <c r="T11">
-        <v>0.9999931842447013</v>
+        <v>0.9999958576032624</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9997357961980129</v>
+        <v>0.9999933570447005</v>
       </c>
       <c r="D12">
-        <v>1.000320241021014</v>
+        <v>1.00000805377919</v>
       </c>
       <c r="E12">
-        <v>1.000120094216191</v>
+        <v>1.000003023955504</v>
       </c>
       <c r="F12">
-        <v>1.000120094216191</v>
+        <v>1.000003023955504</v>
       </c>
       <c r="G12">
-        <v>0.9995196357321919</v>
+        <v>0.9999879185076805</v>
       </c>
       <c r="H12">
-        <v>1.000120094216191</v>
+        <v>1.000003023955504</v>
       </c>
       <c r="I12">
-        <v>0.9995196357321919</v>
+        <v>0.9999879185076805</v>
       </c>
       <c r="J12">
-        <v>1.000120094216191</v>
+        <v>1.000003023955504</v>
       </c>
       <c r="K12">
-        <v>1.000120094216191</v>
+        <v>1.000003023955504</v>
       </c>
       <c r="L12">
-        <v>1.000120094216191</v>
+        <v>1.000003023955504</v>
       </c>
       <c r="M12">
-        <v>0.9998198649741916</v>
+        <v>0.9999954712315924</v>
       </c>
       <c r="N12">
-        <v>0.9998198649741916</v>
+        <v>0.9999954712315924</v>
       </c>
       <c r="O12">
-        <v>0.9997918420487988</v>
+        <v>0.9999947665026284</v>
       </c>
       <c r="P12">
-        <v>0.9999199413881916</v>
+        <v>0.9999979888062297</v>
       </c>
       <c r="Q12">
-        <v>0.9999199413881916</v>
+        <v>0.9999979888062297</v>
       </c>
       <c r="R12">
-        <v>0.9999699795951915</v>
+        <v>0.9999992475935483</v>
       </c>
       <c r="S12">
-        <v>0.9999699795951915</v>
+        <v>0.9999992475935483</v>
       </c>
       <c r="T12">
-        <v>0.9999893259332988</v>
+        <v>0.9999997335330137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999283311509325</v>
+        <v>0.9999184188815563</v>
       </c>
       <c r="D13">
-        <v>1.000086877963037</v>
+        <v>1.000098889129347</v>
       </c>
       <c r="E13">
-        <v>1.000032580109521</v>
+        <v>1.000037087050757</v>
       </c>
       <c r="F13">
-        <v>1.000032580109521</v>
+        <v>1.000037087050757</v>
       </c>
       <c r="G13">
-        <v>0.9998696851522245</v>
+        <v>0.999851669356597</v>
       </c>
       <c r="H13">
-        <v>1.000032580109521</v>
+        <v>1.000037087050757</v>
       </c>
       <c r="I13">
-        <v>0.9998696851522245</v>
+        <v>0.999851669356597</v>
       </c>
       <c r="J13">
-        <v>1.000032580109521</v>
+        <v>1.000037087050757</v>
       </c>
       <c r="K13">
-        <v>1.000032580109521</v>
+        <v>1.000037087050757</v>
       </c>
       <c r="L13">
-        <v>1.000032580109521</v>
+        <v>1.000037087050757</v>
       </c>
       <c r="M13">
-        <v>0.9999511326308725</v>
+        <v>0.999944378203677</v>
       </c>
       <c r="N13">
-        <v>0.9999511326308725</v>
+        <v>0.999944378203677</v>
       </c>
       <c r="O13">
-        <v>0.9999435321375593</v>
+        <v>0.9999357250963034</v>
       </c>
       <c r="P13">
-        <v>0.999978281790422</v>
+        <v>0.9999752811527037</v>
       </c>
       <c r="Q13">
-        <v>0.999978281790422</v>
+        <v>0.9999752811527037</v>
       </c>
       <c r="R13">
-        <v>0.9999918563701966</v>
+        <v>0.999990732627217</v>
       </c>
       <c r="S13">
-        <v>0.9999918563701966</v>
+        <v>0.999990732627217</v>
       </c>
       <c r="T13">
-        <v>0.9999971057657926</v>
+        <v>0.999996706419962</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9803487537850353</v>
+        <v>0.9995744228774133</v>
       </c>
       <c r="D14">
-        <v>1.023819690784401</v>
+        <v>1.000515855625931</v>
       </c>
       <c r="E14">
-        <v>1.008932394824936</v>
+        <v>1.000193451010932</v>
       </c>
       <c r="F14">
-        <v>1.008932394824936</v>
+        <v>1.000193451010932</v>
       </c>
       <c r="G14">
-        <v>0.9642704642877111</v>
+        <v>0.9992262255316385</v>
       </c>
       <c r="H14">
-        <v>1.008932394824936</v>
+        <v>1.000193451010932</v>
       </c>
       <c r="I14">
-        <v>0.9642704642877111</v>
+        <v>0.9992262255316385</v>
       </c>
       <c r="J14">
-        <v>1.008932394824936</v>
+        <v>1.000193451010932</v>
       </c>
       <c r="K14">
-        <v>1.008932394824936</v>
+        <v>1.000193451010932</v>
       </c>
       <c r="L14">
-        <v>1.008932394824936</v>
+        <v>1.000193451010932</v>
       </c>
       <c r="M14">
-        <v>0.9866014295563237</v>
+        <v>0.9997098382712855</v>
       </c>
       <c r="N14">
-        <v>0.9866014295563237</v>
+        <v>0.9997098382712855</v>
       </c>
       <c r="O14">
-        <v>0.9845172042992276</v>
+        <v>0.9996646998066613</v>
       </c>
       <c r="P14">
-        <v>0.9940450846458612</v>
+        <v>0.9998710425178343</v>
       </c>
       <c r="Q14">
-        <v>0.9940450846458612</v>
+        <v>0.9998710425178343</v>
       </c>
       <c r="R14">
-        <v>0.9977669121906299</v>
+        <v>0.9999516446411088</v>
       </c>
       <c r="S14">
-        <v>0.9977669121906299</v>
+        <v>0.9999516446411088</v>
       </c>
       <c r="T14">
-        <v>0.9992060155553261</v>
+        <v>0.9999828095112965</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9947233633050211</v>
+        <v>0.9998463704868633</v>
       </c>
       <c r="D15">
-        <v>1.006395918014905</v>
+        <v>1.000186219106026</v>
       </c>
       <c r="E15">
-        <v>1.002398478429737</v>
+        <v>1.00006983671968</v>
       </c>
       <c r="F15">
-        <v>1.002398478429737</v>
+        <v>1.00006983671968</v>
       </c>
       <c r="G15">
-        <v>0.9904061168911404</v>
+        <v>0.9997206704933802</v>
       </c>
       <c r="H15">
-        <v>1.002398478429737</v>
+        <v>1.00006983671968</v>
       </c>
       <c r="I15">
-        <v>0.9904061168911404</v>
+        <v>0.9997206704933802</v>
       </c>
       <c r="J15">
-        <v>1.002398478429737</v>
+        <v>1.00006983671968</v>
       </c>
       <c r="K15">
-        <v>1.002398478429737</v>
+        <v>1.00006983671968</v>
       </c>
       <c r="L15">
-        <v>1.002398478429737</v>
+        <v>1.00006983671968</v>
       </c>
       <c r="M15">
-        <v>0.9964022976604389</v>
+        <v>0.99989525360653</v>
       </c>
       <c r="N15">
-        <v>0.9964022976604389</v>
+        <v>0.99989525360653</v>
       </c>
       <c r="O15">
-        <v>0.9958426528752996</v>
+        <v>0.9998789592333077</v>
       </c>
       <c r="P15">
-        <v>0.9984010245835383</v>
+        <v>0.9999534479775799</v>
       </c>
       <c r="Q15">
-        <v>0.9984010245835383</v>
+        <v>0.9999534479775799</v>
       </c>
       <c r="R15">
-        <v>0.9994003880450881</v>
+        <v>0.9999825451631048</v>
       </c>
       <c r="S15">
-        <v>0.9994003880450881</v>
+        <v>0.9999825451631048</v>
       </c>
       <c r="T15">
-        <v>0.9997868055833797</v>
+        <v>0.9999937950408846</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9970029945653676</v>
+        <v>0.99970341671383</v>
       </c>
       <c r="D16">
-        <v>1.003632739273272</v>
+        <v>1.000359494927467</v>
       </c>
       <c r="E16">
-        <v>1.001362286417193</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="F16">
-        <v>1.001362286417193</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="G16">
-        <v>0.9945508985338861</v>
+        <v>0.99946075605054</v>
       </c>
       <c r="H16">
-        <v>1.001362286417193</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="I16">
-        <v>0.9945508985338861</v>
+        <v>0.99946075605054</v>
       </c>
       <c r="J16">
-        <v>1.001362286417193</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="K16">
-        <v>1.001362286417193</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="L16">
-        <v>1.001362286417193</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="M16">
-        <v>0.9979565924755396</v>
+        <v>0.9997977863219487</v>
       </c>
       <c r="N16">
-        <v>0.9979565924755396</v>
+        <v>0.9997977863219487</v>
       </c>
       <c r="O16">
-        <v>0.9976387265054822</v>
+        <v>0.9997663297859091</v>
       </c>
       <c r="P16">
-        <v>0.9990918237894242</v>
+        <v>0.9999101297457517</v>
       </c>
       <c r="Q16">
-        <v>0.9990918237894242</v>
+        <v>0.9999101297457517</v>
       </c>
       <c r="R16">
-        <v>0.9996594394463665</v>
+        <v>0.9999663014576531</v>
       </c>
       <c r="S16">
-        <v>0.9996594394463665</v>
+        <v>0.9999663014576531</v>
       </c>
       <c r="T16">
-        <v>0.9998789152706843</v>
+        <v>0.9999880195786514</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9975459287487093</v>
+        <v>0.9994316329855182</v>
       </c>
       <c r="D17">
-        <v>1.002974636180215</v>
+        <v>1.000688929603682</v>
       </c>
       <c r="E17">
-        <v>1.001115495683423</v>
+        <v>1.000258357777225</v>
       </c>
       <c r="F17">
-        <v>1.001115495683423</v>
+        <v>1.000258357777225</v>
       </c>
       <c r="G17">
-        <v>0.9955380509391279</v>
+        <v>0.9989666065185321</v>
       </c>
       <c r="H17">
-        <v>1.001115495683423</v>
+        <v>1.000258357777225</v>
       </c>
       <c r="I17">
-        <v>0.9955380509391279</v>
+        <v>0.9989666065185321</v>
       </c>
       <c r="J17">
-        <v>1.001115495683423</v>
+        <v>1.000258357777225</v>
       </c>
       <c r="K17">
-        <v>1.001115495683423</v>
+        <v>1.000258357777225</v>
       </c>
       <c r="L17">
-        <v>1.001115495683423</v>
+        <v>1.000258357777225</v>
       </c>
       <c r="M17">
-        <v>0.9983267733112753</v>
+        <v>0.9996124821478788</v>
       </c>
       <c r="N17">
-        <v>0.9983267733112753</v>
+        <v>0.9996124821478788</v>
       </c>
       <c r="O17">
-        <v>0.99806649179042</v>
+        <v>0.9995521990937585</v>
       </c>
       <c r="P17">
-        <v>0.9992563474353244</v>
+        <v>0.9998277740243277</v>
       </c>
       <c r="Q17">
-        <v>0.9992563474353244</v>
+        <v>0.9998277740243277</v>
       </c>
       <c r="R17">
-        <v>0.999721134497349</v>
+        <v>0.9999354199625521</v>
       </c>
       <c r="S17">
-        <v>0.999721134497349</v>
+        <v>0.9999354199625521</v>
       </c>
       <c r="T17">
-        <v>0.9999008504863868</v>
+        <v>0.9999770404065681</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9986343146137313</v>
+        <v>0.999166383210775</v>
       </c>
       <c r="D18">
-        <v>1.001655376692158</v>
+        <v>1.001010440971597</v>
       </c>
       <c r="E18">
-        <v>1.000620771041205</v>
+        <v>1.000378917816772</v>
       </c>
       <c r="F18">
-        <v>1.000620771041205</v>
+        <v>1.000378917816772</v>
       </c>
       <c r="G18">
-        <v>0.9975169350005009</v>
+        <v>0.9984843447184468</v>
       </c>
       <c r="H18">
-        <v>1.000620771041205</v>
+        <v>1.000378917816772</v>
       </c>
       <c r="I18">
-        <v>0.9975169350005009</v>
+        <v>0.9984843447184468</v>
       </c>
       <c r="J18">
-        <v>1.000620771041205</v>
+        <v>1.000378917816772</v>
       </c>
       <c r="K18">
-        <v>1.000620771041205</v>
+        <v>1.000378917816772</v>
       </c>
       <c r="L18">
-        <v>1.000620771041205</v>
+        <v>1.000378917816772</v>
       </c>
       <c r="M18">
-        <v>0.999068853020853</v>
+        <v>0.9994316312676093</v>
       </c>
       <c r="N18">
-        <v>0.999068853020853</v>
+        <v>0.9994316312676093</v>
       </c>
       <c r="O18">
-        <v>0.9989240068851458</v>
+        <v>0.9993432152486644</v>
       </c>
       <c r="P18">
-        <v>0.9995861590276371</v>
+        <v>0.9997473934506633</v>
       </c>
       <c r="Q18">
-        <v>0.9995861590276371</v>
+        <v>0.9997473934506633</v>
       </c>
       <c r="R18">
-        <v>0.9998448120310292</v>
+        <v>0.9999052745421904</v>
       </c>
       <c r="S18">
-        <v>0.9998448120310292</v>
+        <v>0.9999052745421904</v>
       </c>
       <c r="T18">
-        <v>0.9999448232383342</v>
+        <v>0.9999663203918555</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9985954062643606</v>
+        <v>0.9999879616362546</v>
       </c>
       <c r="D19">
-        <v>1.001702540444135</v>
+        <v>1.000014593687528</v>
       </c>
       <c r="E19">
-        <v>1.000638459858098</v>
+        <v>1.000005476162338</v>
       </c>
       <c r="F19">
-        <v>1.000638459858098</v>
+        <v>1.000005476162338</v>
       </c>
       <c r="G19">
-        <v>0.9974461938938207</v>
+        <v>0.9999781083967759</v>
       </c>
       <c r="H19">
-        <v>1.000638459858098</v>
+        <v>1.000005476162338</v>
       </c>
       <c r="I19">
-        <v>0.9974461938938207</v>
+        <v>0.9999781083967759</v>
       </c>
       <c r="J19">
-        <v>1.000638459858098</v>
+        <v>1.000005476162338</v>
       </c>
       <c r="K19">
-        <v>1.000638459858098</v>
+        <v>1.000005476162338</v>
       </c>
       <c r="L19">
-        <v>1.000638459858098</v>
+        <v>1.000005476162338</v>
       </c>
       <c r="M19">
-        <v>0.9990423268759592</v>
+        <v>0.9999917922795571</v>
       </c>
       <c r="N19">
-        <v>0.9990423268759592</v>
+        <v>0.9999917922795571</v>
       </c>
       <c r="O19">
-        <v>0.9988933533387597</v>
+        <v>0.9999905153984563</v>
       </c>
       <c r="P19">
-        <v>0.9995743712033386</v>
+        <v>0.9999963535738177</v>
       </c>
       <c r="Q19">
-        <v>0.9995743712033386</v>
+        <v>0.9999963535738177</v>
       </c>
       <c r="R19">
-        <v>0.9998403933670283</v>
+        <v>0.9999986342209479</v>
       </c>
       <c r="S19">
-        <v>0.9998403933670283</v>
+        <v>0.9999986342209479</v>
       </c>
       <c r="T19">
-        <v>0.9999432533627682</v>
+        <v>0.9999995153679291</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999993678410802</v>
+        <v>0.9999727465587491</v>
       </c>
       <c r="D20">
-        <v>1.000000767801654</v>
+        <v>1.00003303634925</v>
       </c>
       <c r="E20">
-        <v>1.000000291638858</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="F20">
-        <v>1.000000291638858</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="G20">
-        <v>0.9999988472115859</v>
+        <v>0.9999504443989664</v>
       </c>
       <c r="H20">
-        <v>1.000000291638858</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="I20">
-        <v>0.9999988472115859</v>
+        <v>0.9999504443989664</v>
       </c>
       <c r="J20">
-        <v>1.000000291638858</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="K20">
-        <v>1.000000291638858</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="L20">
-        <v>1.000000291638858</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="M20">
-        <v>0.9999995694252218</v>
+        <v>0.9999814182427591</v>
       </c>
       <c r="N20">
-        <v>0.9999995694252218</v>
+        <v>0.9999814182427591</v>
       </c>
       <c r="O20">
-        <v>0.999999502230508</v>
+        <v>0.9999785276814225</v>
       </c>
       <c r="P20">
-        <v>0.9999998101631005</v>
+        <v>0.9999917428573566</v>
       </c>
       <c r="Q20">
-        <v>0.9999998101631005</v>
+        <v>0.9999917428573566</v>
       </c>
       <c r="R20">
-        <v>0.9999999305320397</v>
+        <v>0.9999969051646553</v>
       </c>
       <c r="S20">
-        <v>0.9999999305320397</v>
+        <v>0.9999969051646553</v>
       </c>
       <c r="T20">
-        <v>0.9999999762951489</v>
+        <v>0.9999989005944369</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999865667920821</v>
+        <v>0.9999533752722021</v>
       </c>
       <c r="D21">
-        <v>1.000016284015719</v>
+        <v>1.000056515940415</v>
       </c>
       <c r="E21">
-        <v>1.000006110787222</v>
+        <v>1.000021197473843</v>
       </c>
       <c r="F21">
-        <v>1.000006110787222</v>
+        <v>1.000021197473843</v>
       </c>
       <c r="G21">
-        <v>0.9999755728655251</v>
+        <v>0.9999152243449151</v>
       </c>
       <c r="H21">
-        <v>1.000006110787222</v>
+        <v>1.000021197473843</v>
       </c>
       <c r="I21">
-        <v>0.9999755728655251</v>
+        <v>0.9999152243449151</v>
       </c>
       <c r="J21">
-        <v>1.000006110787222</v>
+        <v>1.000021197473843</v>
       </c>
       <c r="K21">
-        <v>1.000006110787222</v>
+        <v>1.000021197473843</v>
       </c>
       <c r="L21">
-        <v>1.000006110787222</v>
+        <v>1.000021197473843</v>
       </c>
       <c r="M21">
-        <v>0.9999908418263738</v>
+        <v>0.9999682109093788</v>
       </c>
       <c r="N21">
-        <v>0.9999908418263738</v>
+        <v>0.9999682109093788</v>
       </c>
       <c r="O21">
-        <v>0.9999894168149432</v>
+        <v>0.9999632656969867</v>
       </c>
       <c r="P21">
-        <v>0.9999959314799899</v>
+        <v>0.9999858730975335</v>
       </c>
       <c r="Q21">
-        <v>0.9999959314799899</v>
+        <v>0.9999858730975335</v>
       </c>
       <c r="R21">
-        <v>0.9999984763067981</v>
+        <v>0.9999947041916109</v>
       </c>
       <c r="S21">
-        <v>0.9999984763067981</v>
+        <v>0.9999947041916109</v>
       </c>
       <c r="T21">
-        <v>0.9999994593391657</v>
+        <v>0.9999981179965101</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.999952698966476</v>
+        <v>0.9999064402371227</v>
       </c>
       <c r="D22">
-        <v>1.00005733345853</v>
+        <v>1.000113406949074</v>
       </c>
       <c r="E22">
-        <v>1.000021500551281</v>
+        <v>1.000042530523408</v>
       </c>
       <c r="F22">
-        <v>1.000021500551281</v>
+        <v>1.000042530523408</v>
       </c>
       <c r="G22">
-        <v>0.9999139976177639</v>
+        <v>0.999829887938349</v>
       </c>
       <c r="H22">
-        <v>1.000021500551281</v>
+        <v>1.000042530523408</v>
       </c>
       <c r="I22">
-        <v>0.9999139976177639</v>
+        <v>0.999829887938349</v>
       </c>
       <c r="J22">
-        <v>1.000021500551281</v>
+        <v>1.000042530523408</v>
       </c>
       <c r="K22">
-        <v>1.000021500551281</v>
+        <v>1.000042530523408</v>
       </c>
       <c r="L22">
-        <v>1.000021500551281</v>
+        <v>1.000042530523408</v>
       </c>
       <c r="M22">
-        <v>0.9999677490845225</v>
+        <v>0.9999362092308788</v>
       </c>
       <c r="N22">
-        <v>0.9999677490845225</v>
+        <v>0.9999362092308788</v>
       </c>
       <c r="O22">
-        <v>0.9999627323785069</v>
+        <v>0.99992628623296</v>
       </c>
       <c r="P22">
-        <v>0.9999856662401087</v>
+        <v>0.999971649661722</v>
       </c>
       <c r="Q22">
-        <v>0.9999856662401087</v>
+        <v>0.999971649661722</v>
       </c>
       <c r="R22">
-        <v>0.9999946248179018</v>
+        <v>0.9999893698771436</v>
       </c>
       <c r="S22">
-        <v>0.9999946248179018</v>
+        <v>0.9999893698771436</v>
       </c>
       <c r="T22">
-        <v>0.9999980886161023</v>
+        <v>0.9999962211157953</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9998312534784507</v>
+      </c>
+      <c r="D23">
+        <v>1.000204542845307</v>
+      </c>
+      <c r="E23">
+        <v>1.000076706898965</v>
+      </c>
+      <c r="F23">
+        <v>1.000076706898965</v>
+      </c>
+      <c r="G23">
+        <v>0.9996931884475553</v>
+      </c>
+      <c r="H23">
+        <v>1.000076706898965</v>
+      </c>
+      <c r="I23">
+        <v>0.9996931884475553</v>
+      </c>
+      <c r="J23">
+        <v>1.000076706898965</v>
+      </c>
+      <c r="K23">
+        <v>1.000076706898965</v>
+      </c>
+      <c r="L23">
+        <v>1.000076706898965</v>
+      </c>
+      <c r="M23">
+        <v>0.9998849476732601</v>
+      </c>
+      <c r="N23">
+        <v>0.9998849476732601</v>
+      </c>
+      <c r="O23">
+        <v>0.9998670496083236</v>
+      </c>
+      <c r="P23">
+        <v>0.9999488674151618</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999488674151618</v>
+      </c>
+      <c r="R23">
+        <v>0.9999808272861126</v>
+      </c>
+      <c r="S23">
+        <v>0.9999808272861126</v>
+      </c>
+      <c r="T23">
+        <v>0.9999931842447013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9997357961980129</v>
+      </c>
+      <c r="D24">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="E24">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="F24">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="G24">
+        <v>0.9995196357321919</v>
+      </c>
+      <c r="H24">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="I24">
+        <v>0.9995196357321919</v>
+      </c>
+      <c r="J24">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="K24">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="L24">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="M24">
+        <v>0.9998198649741916</v>
+      </c>
+      <c r="N24">
+        <v>0.9998198649741916</v>
+      </c>
+      <c r="O24">
+        <v>0.9997918420487988</v>
+      </c>
+      <c r="P24">
+        <v>0.9999199413881916</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999199413881916</v>
+      </c>
+      <c r="R24">
+        <v>0.9999699795951915</v>
+      </c>
+      <c r="S24">
+        <v>0.9999699795951915</v>
+      </c>
+      <c r="T24">
+        <v>0.9999893259332988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9999283311509325</v>
+      </c>
+      <c r="D25">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="E25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="F25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="G25">
+        <v>0.9998696851522245</v>
+      </c>
+      <c r="H25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="I25">
+        <v>0.9998696851522245</v>
+      </c>
+      <c r="J25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="K25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="L25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="M25">
+        <v>0.9999511326308725</v>
+      </c>
+      <c r="N25">
+        <v>0.9999511326308725</v>
+      </c>
+      <c r="O25">
+        <v>0.9999435321375593</v>
+      </c>
+      <c r="P25">
+        <v>0.999978281790422</v>
+      </c>
+      <c r="Q25">
+        <v>0.999978281790422</v>
+      </c>
+      <c r="R25">
+        <v>0.9999918563701966</v>
+      </c>
+      <c r="S25">
+        <v>0.9999918563701966</v>
+      </c>
+      <c r="T25">
+        <v>0.9999971057657926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9803487537850353</v>
+      </c>
+      <c r="D26">
+        <v>1.023819690784401</v>
+      </c>
+      <c r="E26">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="F26">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="G26">
+        <v>0.9642704642877111</v>
+      </c>
+      <c r="H26">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="I26">
+        <v>0.9642704642877111</v>
+      </c>
+      <c r="J26">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="K26">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="L26">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="M26">
+        <v>0.9866014295563237</v>
+      </c>
+      <c r="N26">
+        <v>0.9866014295563237</v>
+      </c>
+      <c r="O26">
+        <v>0.9845172042992276</v>
+      </c>
+      <c r="P26">
+        <v>0.9940450846458612</v>
+      </c>
+      <c r="Q26">
+        <v>0.9940450846458612</v>
+      </c>
+      <c r="R26">
+        <v>0.9977669121906299</v>
+      </c>
+      <c r="S26">
+        <v>0.9977669121906299</v>
+      </c>
+      <c r="T26">
+        <v>0.9992060155553261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9947233633050211</v>
+      </c>
+      <c r="D27">
+        <v>1.006395918014905</v>
+      </c>
+      <c r="E27">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="F27">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="G27">
+        <v>0.9904061168911404</v>
+      </c>
+      <c r="H27">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="I27">
+        <v>0.9904061168911404</v>
+      </c>
+      <c r="J27">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="K27">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="L27">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="M27">
+        <v>0.9964022976604389</v>
+      </c>
+      <c r="N27">
+        <v>0.9964022976604389</v>
+      </c>
+      <c r="O27">
+        <v>0.9958426528752996</v>
+      </c>
+      <c r="P27">
+        <v>0.9984010245835383</v>
+      </c>
+      <c r="Q27">
+        <v>0.9984010245835383</v>
+      </c>
+      <c r="R27">
+        <v>0.9994003880450881</v>
+      </c>
+      <c r="S27">
+        <v>0.9994003880450881</v>
+      </c>
+      <c r="T27">
+        <v>0.9997868055833797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9970029945653676</v>
+      </c>
+      <c r="D28">
+        <v>1.003632739273272</v>
+      </c>
+      <c r="E28">
+        <v>1.001362286417193</v>
+      </c>
+      <c r="F28">
+        <v>1.001362286417193</v>
+      </c>
+      <c r="G28">
+        <v>0.9945508985338861</v>
+      </c>
+      <c r="H28">
+        <v>1.001362286417193</v>
+      </c>
+      <c r="I28">
+        <v>0.9945508985338861</v>
+      </c>
+      <c r="J28">
+        <v>1.001362286417193</v>
+      </c>
+      <c r="K28">
+        <v>1.001362286417193</v>
+      </c>
+      <c r="L28">
+        <v>1.001362286417193</v>
+      </c>
+      <c r="M28">
+        <v>0.9979565924755396</v>
+      </c>
+      <c r="N28">
+        <v>0.9979565924755396</v>
+      </c>
+      <c r="O28">
+        <v>0.9976387265054822</v>
+      </c>
+      <c r="P28">
+        <v>0.9990918237894242</v>
+      </c>
+      <c r="Q28">
+        <v>0.9990918237894242</v>
+      </c>
+      <c r="R28">
+        <v>0.9996594394463665</v>
+      </c>
+      <c r="S28">
+        <v>0.9996594394463665</v>
+      </c>
+      <c r="T28">
+        <v>0.9998789152706843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9975459287487093</v>
+      </c>
+      <c r="D29">
+        <v>1.002974636180215</v>
+      </c>
+      <c r="E29">
+        <v>1.001115495683423</v>
+      </c>
+      <c r="F29">
+        <v>1.001115495683423</v>
+      </c>
+      <c r="G29">
+        <v>0.9955380509391279</v>
+      </c>
+      <c r="H29">
+        <v>1.001115495683423</v>
+      </c>
+      <c r="I29">
+        <v>0.9955380509391279</v>
+      </c>
+      <c r="J29">
+        <v>1.001115495683423</v>
+      </c>
+      <c r="K29">
+        <v>1.001115495683423</v>
+      </c>
+      <c r="L29">
+        <v>1.001115495683423</v>
+      </c>
+      <c r="M29">
+        <v>0.9983267733112753</v>
+      </c>
+      <c r="N29">
+        <v>0.9983267733112753</v>
+      </c>
+      <c r="O29">
+        <v>0.99806649179042</v>
+      </c>
+      <c r="P29">
+        <v>0.9992563474353244</v>
+      </c>
+      <c r="Q29">
+        <v>0.9992563474353244</v>
+      </c>
+      <c r="R29">
+        <v>0.999721134497349</v>
+      </c>
+      <c r="S29">
+        <v>0.999721134497349</v>
+      </c>
+      <c r="T29">
+        <v>0.9999008504863868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9986343146137313</v>
+      </c>
+      <c r="D30">
+        <v>1.001655376692158</v>
+      </c>
+      <c r="E30">
+        <v>1.000620771041205</v>
+      </c>
+      <c r="F30">
+        <v>1.000620771041205</v>
+      </c>
+      <c r="G30">
+        <v>0.9975169350005009</v>
+      </c>
+      <c r="H30">
+        <v>1.000620771041205</v>
+      </c>
+      <c r="I30">
+        <v>0.9975169350005009</v>
+      </c>
+      <c r="J30">
+        <v>1.000620771041205</v>
+      </c>
+      <c r="K30">
+        <v>1.000620771041205</v>
+      </c>
+      <c r="L30">
+        <v>1.000620771041205</v>
+      </c>
+      <c r="M30">
+        <v>0.999068853020853</v>
+      </c>
+      <c r="N30">
+        <v>0.999068853020853</v>
+      </c>
+      <c r="O30">
+        <v>0.9989240068851458</v>
+      </c>
+      <c r="P30">
+        <v>0.9995861590276371</v>
+      </c>
+      <c r="Q30">
+        <v>0.9995861590276371</v>
+      </c>
+      <c r="R30">
+        <v>0.9998448120310292</v>
+      </c>
+      <c r="S30">
+        <v>0.9998448120310292</v>
+      </c>
+      <c r="T30">
+        <v>0.9999448232383342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9985954062643606</v>
+      </c>
+      <c r="D31">
+        <v>1.001702540444135</v>
+      </c>
+      <c r="E31">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="F31">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="G31">
+        <v>0.9974461938938207</v>
+      </c>
+      <c r="H31">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="I31">
+        <v>0.9974461938938207</v>
+      </c>
+      <c r="J31">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="K31">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="L31">
+        <v>1.000638459858098</v>
+      </c>
+      <c r="M31">
+        <v>0.9990423268759592</v>
+      </c>
+      <c r="N31">
+        <v>0.9990423268759592</v>
+      </c>
+      <c r="O31">
+        <v>0.9988933533387597</v>
+      </c>
+      <c r="P31">
+        <v>0.9995743712033386</v>
+      </c>
+      <c r="Q31">
+        <v>0.9995743712033386</v>
+      </c>
+      <c r="R31">
+        <v>0.9998403933670283</v>
+      </c>
+      <c r="S31">
+        <v>0.9998403933670283</v>
+      </c>
+      <c r="T31">
+        <v>0.9999432533627682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9963732834246577</v>
+      </c>
+      <c r="D32">
+        <v>1.004396027123288</v>
+      </c>
+      <c r="E32">
+        <v>1.001648521095891</v>
+      </c>
+      <c r="F32">
+        <v>1.001648521095891</v>
+      </c>
+      <c r="G32">
+        <v>0.9934059697260273</v>
+      </c>
+      <c r="H32">
+        <v>1.001648521095891</v>
+      </c>
+      <c r="I32">
+        <v>0.9934059697260273</v>
+      </c>
+      <c r="J32">
+        <v>1.001648521095891</v>
+      </c>
+      <c r="K32">
+        <v>1.001648521095891</v>
+      </c>
+      <c r="L32">
+        <v>1.001648521095891</v>
+      </c>
+      <c r="M32">
+        <v>0.9975272454109589</v>
+      </c>
+      <c r="N32">
+        <v>0.9975272454109589</v>
+      </c>
+      <c r="O32">
+        <v>0.9971425914155252</v>
+      </c>
+      <c r="P32">
+        <v>0.9989010039726027</v>
+      </c>
+      <c r="Q32">
+        <v>0.9989010039726027</v>
+      </c>
+      <c r="R32">
+        <v>0.9995878832534246</v>
+      </c>
+      <c r="S32">
+        <v>0.9995878832534246</v>
+      </c>
+      <c r="T32">
+        <v>0.9998534739269407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9973873331578945</v>
+      </c>
+      <c r="D33">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="E33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="F33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="G33">
+        <v>0.9952496973684208</v>
+      </c>
+      <c r="H33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="I33">
+        <v>0.9952496973684208</v>
+      </c>
+      <c r="J33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="K33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="L33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="M33">
+        <v>0.9982186431578944</v>
+      </c>
+      <c r="N33">
+        <v>0.9982186431578944</v>
+      </c>
+      <c r="O33">
+        <v>0.9979415398245611</v>
+      </c>
+      <c r="P33">
+        <v>0.9992082917543857</v>
+      </c>
+      <c r="Q33">
+        <v>0.9992082917543857</v>
+      </c>
+      <c r="R33">
+        <v>0.9997031160526313</v>
+      </c>
+      <c r="S33">
+        <v>0.9997031160526313</v>
+      </c>
+      <c r="T33">
+        <v>0.9998944456140348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.012938931578947</v>
+      </c>
+      <c r="D34">
+        <v>0.984316445263158</v>
+      </c>
+      <c r="E34">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="F34">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="G34">
+        <v>1.023525342105263</v>
+      </c>
+      <c r="H34">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="I34">
+        <v>1.023525342105263</v>
+      </c>
+      <c r="J34">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="K34">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="L34">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="M34">
+        <v>1.008822003947368</v>
+      </c>
+      <c r="N34">
+        <v>1.008822003947368</v>
+      </c>
+      <c r="O34">
+        <v>1.010194313157895</v>
+      </c>
+      <c r="P34">
+        <v>1.00392089122807</v>
+      </c>
+      <c r="Q34">
+        <v>1.00392089122807</v>
+      </c>
+      <c r="R34">
+        <v>1.001470334868421</v>
+      </c>
+      <c r="S34">
+        <v>1.001470334868421</v>
+      </c>
+      <c r="T34">
+        <v>1.000522786052631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9946076974743521</v>
+      </c>
+      <c r="D35">
+        <v>1.006536148098773</v>
+      </c>
+      <c r="E35">
+        <v>1.002451050852619</v>
+      </c>
+      <c r="F35">
+        <v>1.002451050852619</v>
+      </c>
+      <c r="G35">
+        <v>0.990195807953823</v>
+      </c>
+      <c r="H35">
+        <v>1.002451050852619</v>
+      </c>
+      <c r="I35">
+        <v>0.990195807953823</v>
+      </c>
+      <c r="J35">
+        <v>1.002451050852619</v>
+      </c>
+      <c r="K35">
+        <v>1.002451050852619</v>
+      </c>
+      <c r="L35">
+        <v>1.002451050852619</v>
+      </c>
+      <c r="M35">
+        <v>0.9963234294032213</v>
+      </c>
+      <c r="N35">
+        <v>0.9963234294032213</v>
+      </c>
+      <c r="O35">
+        <v>0.9957515187602649</v>
+      </c>
+      <c r="P35">
+        <v>0.9983659698863541</v>
+      </c>
+      <c r="Q35">
+        <v>0.9983659698863541</v>
+      </c>
+      <c r="R35">
+        <v>0.9993872401279205</v>
+      </c>
+      <c r="S35">
+        <v>0.9993872401279205</v>
+      </c>
+      <c r="T35">
+        <v>0.9997821343474679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999993678410802</v>
+      </c>
+      <c r="D36">
+        <v>1.000000767801654</v>
+      </c>
+      <c r="E36">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="F36">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="G36">
+        <v>0.9999988472115859</v>
+      </c>
+      <c r="H36">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="I36">
+        <v>0.9999988472115859</v>
+      </c>
+      <c r="J36">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="K36">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="L36">
+        <v>1.000000291638858</v>
+      </c>
+      <c r="M36">
+        <v>0.9999995694252218</v>
+      </c>
+      <c r="N36">
+        <v>0.9999995694252218</v>
+      </c>
+      <c r="O36">
+        <v>0.999999502230508</v>
+      </c>
+      <c r="P36">
+        <v>0.9999998101631005</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999998101631005</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999305320397</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999305320397</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999762951489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999865667920821</v>
+      </c>
+      <c r="D37">
+        <v>1.000016284015719</v>
+      </c>
+      <c r="E37">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="F37">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="G37">
+        <v>0.9999755728655251</v>
+      </c>
+      <c r="H37">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="I37">
+        <v>0.9999755728655251</v>
+      </c>
+      <c r="J37">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="K37">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="L37">
+        <v>1.000006110787222</v>
+      </c>
+      <c r="M37">
+        <v>0.9999908418263738</v>
+      </c>
+      <c r="N37">
+        <v>0.9999908418263738</v>
+      </c>
+      <c r="O37">
+        <v>0.9999894168149432</v>
+      </c>
+      <c r="P37">
+        <v>0.9999959314799899</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999959314799899</v>
+      </c>
+      <c r="R37">
+        <v>0.9999984763067981</v>
+      </c>
+      <c r="S37">
+        <v>0.9999984763067981</v>
+      </c>
+      <c r="T37">
+        <v>0.9999994593391657</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.999952698966476</v>
+      </c>
+      <c r="D38">
+        <v>1.00005733345853</v>
+      </c>
+      <c r="E38">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="F38">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="G38">
+        <v>0.9999139976177639</v>
+      </c>
+      <c r="H38">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="I38">
+        <v>0.9999139976177639</v>
+      </c>
+      <c r="J38">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="K38">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="L38">
+        <v>1.000021500551281</v>
+      </c>
+      <c r="M38">
+        <v>0.9999677490845225</v>
+      </c>
+      <c r="N38">
+        <v>0.9999677490845225</v>
+      </c>
+      <c r="O38">
+        <v>0.9999627323785069</v>
+      </c>
+      <c r="P38">
+        <v>0.9999856662401087</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999856662401087</v>
+      </c>
+      <c r="R38">
+        <v>0.9999946248179018</v>
+      </c>
+      <c r="S38">
+        <v>0.9999946248179018</v>
+      </c>
+      <c r="T38">
+        <v>0.9999980886161023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9998891849681729</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000134320288022</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000050377870045</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000050377870045</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9997985214434387</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000050377870045</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9997985214434387</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000050377870045</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000050377870045</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000050377870045</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999244496567419</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9999244496567419</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9999126947605522</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999664257278429</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999664257278429</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999874137633934</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999874137633934</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999955267182946</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.00488821211063</v>
+      </c>
+      <c r="D40">
+        <v>0.9940748975781152</v>
+      </c>
+      <c r="E40">
+        <v>0.997778089440058</v>
+      </c>
+      <c r="F40">
+        <v>0.997778089440058</v>
+      </c>
+      <c r="G40">
+        <v>1.008887654385021</v>
+      </c>
+      <c r="H40">
+        <v>0.997778089440058</v>
+      </c>
+      <c r="I40">
+        <v>1.008887654385021</v>
+      </c>
+      <c r="J40">
+        <v>0.997778089440058</v>
+      </c>
+      <c r="K40">
+        <v>0.997778089440058</v>
+      </c>
+      <c r="L40">
+        <v>0.997778089440058</v>
+      </c>
+      <c r="M40">
+        <v>1.00333287191254</v>
+      </c>
+      <c r="N40">
+        <v>1.00333287191254</v>
+      </c>
+      <c r="O40">
+        <v>1.003851318645236</v>
+      </c>
+      <c r="P40">
+        <v>1.001481277755046</v>
+      </c>
+      <c r="Q40">
+        <v>1.001481277755046</v>
+      </c>
+      <c r="R40">
+        <v>1.000555480676299</v>
+      </c>
+      <c r="S40">
+        <v>1.000555480676299</v>
+      </c>
+      <c r="T40">
+        <v>1.00019750539899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.002591468866632</v>
+      </c>
+      <c r="D41">
+        <v>0.9968588270858504</v>
+      </c>
+      <c r="E41">
+        <v>0.9988220632802289</v>
+      </c>
+      <c r="F41">
+        <v>0.9988220632802289</v>
+      </c>
+      <c r="G41">
+        <v>1.004711757139632</v>
+      </c>
+      <c r="H41">
+        <v>0.9988220632802289</v>
+      </c>
+      <c r="I41">
+        <v>1.004711757139632</v>
+      </c>
+      <c r="J41">
+        <v>0.9988220632802289</v>
+      </c>
+      <c r="K41">
+        <v>0.9988220632802289</v>
+      </c>
+      <c r="L41">
+        <v>0.9988220632802289</v>
+      </c>
+      <c r="M41">
+        <v>1.001766910209931</v>
+      </c>
+      <c r="N41">
+        <v>1.001766910209931</v>
+      </c>
+      <c r="O41">
+        <v>1.002041763095498</v>
+      </c>
+      <c r="P41">
+        <v>1.000785294566697</v>
+      </c>
+      <c r="Q41">
+        <v>1.000785294566697</v>
+      </c>
+      <c r="R41">
+        <v>1.00029448674508</v>
+      </c>
+      <c r="S41">
+        <v>1.00029448674508</v>
+      </c>
+      <c r="T41">
+        <v>1.000104707155467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.002247882089657</v>
+      </c>
+      <c r="D42">
+        <v>0.9972753005799023</v>
+      </c>
+      <c r="E42">
+        <v>0.9989782400292243</v>
+      </c>
+      <c r="F42">
+        <v>0.9989782400292243</v>
+      </c>
+      <c r="G42">
+        <v>1.004087052666823</v>
+      </c>
+      <c r="H42">
+        <v>0.9989782400292243</v>
+      </c>
+      <c r="I42">
+        <v>1.004087052666823</v>
+      </c>
+      <c r="J42">
+        <v>0.9989782400292243</v>
+      </c>
+      <c r="K42">
+        <v>0.9989782400292243</v>
+      </c>
+      <c r="L42">
+        <v>0.9989782400292243</v>
+      </c>
+      <c r="M42">
+        <v>1.001532646348024</v>
+      </c>
+      <c r="N42">
+        <v>1.001532646348024</v>
+      </c>
+      <c r="O42">
+        <v>1.001771058261901</v>
+      </c>
+      <c r="P42">
+        <v>1.000681177575091</v>
+      </c>
+      <c r="Q42">
+        <v>1.000681177575091</v>
+      </c>
+      <c r="R42">
+        <v>1.000255443188624</v>
+      </c>
+      <c r="S42">
+        <v>1.000255443188624</v>
+      </c>
+      <c r="T42">
+        <v>1.000090825904009</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00006983671968</v>
+        <v>0.9999727465587491</v>
       </c>
       <c r="D3">
-        <v>0.9997206704933802</v>
+        <v>1.00003303634925</v>
       </c>
       <c r="E3">
-        <v>1.00006983671968</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="F3">
-        <v>1.00006983671968</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="G3">
-        <v>1.000186219106026</v>
+        <v>0.9999504443989664</v>
       </c>
       <c r="H3">
-        <v>0.9998463704868633</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="I3">
-        <v>1.00006983671968</v>
+        <v>0.9999504443989664</v>
       </c>
       <c r="J3">
-        <v>0.9997206704933802</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="K3">
-        <v>1.00006983671968</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="L3">
-        <v>1.00006983671968</v>
+        <v>1.000012392086552</v>
       </c>
       <c r="M3">
-        <v>0.99989525360653</v>
+        <v>0.9999814182427591</v>
       </c>
       <c r="N3">
-        <v>0.99989525360653</v>
+        <v>0.9999814182427591</v>
       </c>
       <c r="O3">
-        <v>0.9998789592333077</v>
+        <v>0.9999785276814225</v>
       </c>
       <c r="P3">
-        <v>0.9999534479775799</v>
+        <v>0.9999917428573566</v>
       </c>
       <c r="Q3">
-        <v>0.9999534479775799</v>
+        <v>0.9999917428573566</v>
       </c>
       <c r="R3">
-        <v>0.9999825451631048</v>
+        <v>0.9999969051646553</v>
       </c>
       <c r="S3">
-        <v>0.9999825451631048</v>
+        <v>0.9999969051646553</v>
       </c>
       <c r="T3">
-        <v>0.9999937950408846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.9999989005944369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000134816593357</v>
+        <v>1.00488821211063</v>
       </c>
       <c r="D4">
-        <v>0.99946075605054</v>
+        <v>0.9940748975781152</v>
       </c>
       <c r="E4">
-        <v>1.000134816593357</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="F4">
-        <v>1.000134816593357</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="G4">
-        <v>1.000359494927467</v>
+        <v>1.008887654385021</v>
       </c>
       <c r="H4">
-        <v>0.99970341671383</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="I4">
-        <v>1.000134816593357</v>
+        <v>1.008887654385021</v>
       </c>
       <c r="J4">
-        <v>0.99946075605054</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="K4">
-        <v>1.000134816593357</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="L4">
-        <v>1.000134816593357</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="M4">
-        <v>0.9997977863219486</v>
+        <v>1.00333287191254</v>
       </c>
       <c r="N4">
-        <v>0.9997977863219486</v>
+        <v>1.00333287191254</v>
       </c>
       <c r="O4">
-        <v>0.9997663297859091</v>
+        <v>1.003851318645236</v>
       </c>
       <c r="P4">
-        <v>0.9999101297457514</v>
+        <v>1.001481277755046</v>
       </c>
       <c r="Q4">
-        <v>0.9999101297457514</v>
+        <v>1.001481277755046</v>
       </c>
       <c r="R4">
-        <v>0.999966301457653</v>
+        <v>1.000555480676299</v>
       </c>
       <c r="S4">
-        <v>0.999966301457653</v>
+        <v>1.000555480676299</v>
       </c>
       <c r="T4">
-        <v>0.9999880195786514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>1.00019750539899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000258357777225</v>
+        <v>0.9985915733357362</v>
       </c>
       <c r="D5">
-        <v>0.9989666065185321</v>
+        <v>1.001707187132565</v>
       </c>
       <c r="E5">
-        <v>1.000258357777225</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="F5">
-        <v>1.000258357777225</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="G5">
-        <v>1.000688929603682</v>
+        <v>0.9974392217363117</v>
       </c>
       <c r="H5">
-        <v>0.9994316329855182</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="I5">
-        <v>1.000258357777225</v>
+        <v>0.9974392217363117</v>
       </c>
       <c r="J5">
-        <v>0.9989666065185321</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="K5">
-        <v>1.000258357777225</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="L5">
-        <v>1.000258357777225</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="M5">
-        <v>0.9996124821478788</v>
+        <v>0.99903970982709</v>
       </c>
       <c r="N5">
-        <v>0.9996124821478788</v>
+        <v>0.99903970982709</v>
       </c>
       <c r="O5">
-        <v>0.9995521990937585</v>
+        <v>0.9988903309966387</v>
       </c>
       <c r="P5">
-        <v>0.9998277740243277</v>
+        <v>0.9995732058573493</v>
       </c>
       <c r="Q5">
-        <v>0.9998277740243277</v>
+        <v>0.9995732058573493</v>
       </c>
       <c r="R5">
-        <v>0.9999354199625521</v>
+        <v>0.9998399538724791</v>
       </c>
       <c r="S5">
-        <v>0.9999354199625521</v>
+        <v>0.9998399538724791</v>
       </c>
       <c r="T5">
-        <v>0.9999770404065681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.9999430959930362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000378917816772</v>
+        <v>0.9946076974743521</v>
       </c>
       <c r="D6">
-        <v>0.9984843447184468</v>
+        <v>1.006536148098773</v>
       </c>
       <c r="E6">
-        <v>1.000378917816772</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="F6">
-        <v>1.000378917816772</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="G6">
-        <v>1.001010440971597</v>
+        <v>0.990195807953823</v>
       </c>
       <c r="H6">
-        <v>0.999166383210775</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="I6">
-        <v>1.000378917816772</v>
+        <v>0.990195807953823</v>
       </c>
       <c r="J6">
-        <v>0.9984843447184468</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="K6">
-        <v>1.000378917816772</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="L6">
-        <v>1.000378917816772</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="M6">
-        <v>0.9994316312676093</v>
+        <v>0.9963234294032213</v>
       </c>
       <c r="N6">
-        <v>0.9994316312676093</v>
+        <v>0.9963234294032213</v>
       </c>
       <c r="O6">
-        <v>0.9993432152486644</v>
+        <v>0.9957515187602649</v>
       </c>
       <c r="P6">
-        <v>0.9997473934506633</v>
+        <v>0.9983659698863541</v>
       </c>
       <c r="Q6">
-        <v>0.9997473934506633</v>
+        <v>0.9983659698863541</v>
       </c>
       <c r="R6">
-        <v>0.9999052745421904</v>
+        <v>0.9993872401279205</v>
       </c>
       <c r="S6">
-        <v>0.9999052745421904</v>
+        <v>0.9993872401279205</v>
       </c>
       <c r="T6">
-        <v>0.9999663203918555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9997821343474679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000005476162338</v>
+        <v>0.9998974180293286</v>
       </c>
       <c r="D7">
-        <v>0.9999781083967759</v>
+        <v>1.000124343346317</v>
       </c>
       <c r="E7">
-        <v>1.000005476162338</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="F7">
-        <v>1.000005476162338</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="G7">
-        <v>1.000014593687528</v>
+        <v>0.9998134838890762</v>
       </c>
       <c r="H7">
-        <v>0.9999879616362546</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="I7">
-        <v>1.000005476162338</v>
+        <v>0.9998134838890762</v>
       </c>
       <c r="J7">
-        <v>0.9999781083967759</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="K7">
-        <v>1.000005476162338</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="L7">
-        <v>1.000005476162338</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="M7">
-        <v>0.9999917922795571</v>
+        <v>0.9999300586703469</v>
       </c>
       <c r="N7">
-        <v>0.9999917922795571</v>
+        <v>0.9999300586703469</v>
       </c>
       <c r="O7">
-        <v>0.9999905153984563</v>
+        <v>0.9999191784566741</v>
       </c>
       <c r="P7">
-        <v>0.9999963535738177</v>
+        <v>0.9999689169307704</v>
       </c>
       <c r="Q7">
-        <v>0.9999963535738177</v>
+        <v>0.9999689169307704</v>
       </c>
       <c r="R7">
-        <v>0.9999986342209479</v>
+        <v>0.9999883460609822</v>
       </c>
       <c r="S7">
-        <v>0.9999986342209479</v>
+        <v>0.9999883460609822</v>
       </c>
       <c r="T7">
-        <v>0.9999995153679291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999958576032624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000012392086552</v>
+        <v>0.9999865667920821</v>
       </c>
       <c r="D8">
-        <v>0.9999504443989664</v>
+        <v>1.000016284015719</v>
       </c>
       <c r="E8">
-        <v>1.000012392086552</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="F8">
-        <v>1.000012392086552</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="G8">
-        <v>1.00003303634925</v>
+        <v>0.9999755728655251</v>
       </c>
       <c r="H8">
-        <v>0.9999727465587489</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="I8">
-        <v>1.000012392086552</v>
+        <v>0.9999755728655251</v>
       </c>
       <c r="J8">
-        <v>0.9999504443989664</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="K8">
-        <v>1.000012392086552</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="L8">
-        <v>1.000012392086552</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="M8">
-        <v>0.9999814182427592</v>
+        <v>0.9999908418263738</v>
       </c>
       <c r="N8">
-        <v>0.9999814182427592</v>
+        <v>0.9999908418263738</v>
       </c>
       <c r="O8">
-        <v>0.9999785276814225</v>
+        <v>0.9999894168149432</v>
       </c>
       <c r="P8">
-        <v>0.9999917428573569</v>
+        <v>0.9999959314799899</v>
       </c>
       <c r="Q8">
-        <v>0.9999917428573569</v>
+        <v>0.9999959314799899</v>
       </c>
       <c r="R8">
-        <v>0.9999969051646557</v>
+        <v>0.9999984763067981</v>
       </c>
       <c r="S8">
-        <v>0.9999969051646557</v>
+        <v>0.9999984763067981</v>
       </c>
       <c r="T8">
-        <v>0.999998900594437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999994593391657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000021197473843</v>
+        <v>0.99970341671383</v>
       </c>
       <c r="D9">
-        <v>0.9999152243449151</v>
+        <v>1.000359494927467</v>
       </c>
       <c r="E9">
-        <v>1.000021197473843</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="F9">
-        <v>1.000021197473843</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="G9">
-        <v>1.000056515940415</v>
+        <v>0.99946075605054</v>
       </c>
       <c r="H9">
-        <v>0.9999533752722021</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="I9">
-        <v>1.000021197473843</v>
+        <v>0.99946075605054</v>
       </c>
       <c r="J9">
-        <v>0.9999152243449151</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="K9">
-        <v>1.000021197473843</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="L9">
-        <v>1.000021197473843</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="M9">
-        <v>0.9999682109093788</v>
+        <v>0.9997977863219487</v>
       </c>
       <c r="N9">
-        <v>0.9999682109093788</v>
+        <v>0.9997977863219487</v>
       </c>
       <c r="O9">
-        <v>0.9999632656969867</v>
+        <v>0.9997663297859091</v>
       </c>
       <c r="P9">
-        <v>0.9999858730975335</v>
+        <v>0.9999101297457517</v>
       </c>
       <c r="Q9">
-        <v>0.9999858730975335</v>
+        <v>0.9999101297457517</v>
       </c>
       <c r="R9">
-        <v>0.9999947041916109</v>
+        <v>0.9999663014576531</v>
       </c>
       <c r="S9">
-        <v>0.9999947041916109</v>
+        <v>0.9999663014576531</v>
       </c>
       <c r="T9">
-        <v>0.9999981179965101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999880195786514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000042530523408</v>
+        <v>0.9945272571423595</v>
       </c>
       <c r="D10">
-        <v>0.999829887938349</v>
+        <v>1.006633651402921</v>
       </c>
       <c r="E10">
-        <v>1.000042530523408</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="F10">
-        <v>1.000042530523408</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="G10">
-        <v>1.000113406949074</v>
+        <v>0.9900495539964854</v>
       </c>
       <c r="H10">
-        <v>0.9999064402371227</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="I10">
-        <v>1.000042530523408</v>
+        <v>0.9900495539964854</v>
       </c>
       <c r="J10">
-        <v>0.999829887938349</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="K10">
-        <v>1.000042530523408</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="L10">
-        <v>1.000042530523408</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="M10">
-        <v>0.9999362092308786</v>
+        <v>0.9962685842646539</v>
       </c>
       <c r="N10">
-        <v>0.9999362092308786</v>
+        <v>0.9962685842646539</v>
       </c>
       <c r="O10">
-        <v>0.99992628623296</v>
+        <v>0.9956881418905558</v>
       </c>
       <c r="P10">
-        <v>0.9999716496617218</v>
+        <v>0.9983415943540436</v>
       </c>
       <c r="Q10">
-        <v>0.9999716496617218</v>
+        <v>0.9983415943540436</v>
       </c>
       <c r="R10">
-        <v>0.9999893698771434</v>
+        <v>0.9993780993987382</v>
       </c>
       <c r="S10">
-        <v>0.9999893698771434</v>
+        <v>0.9993780993987382</v>
       </c>
       <c r="T10">
-        <v>0.999996221115795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9997788843567056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000076706898965</v>
+        <v>1.00698427732246</v>
       </c>
       <c r="D11">
-        <v>0.9996931884475553</v>
+        <v>0.9915342123082009</v>
       </c>
       <c r="E11">
-        <v>1.000076706898965</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="F11">
-        <v>1.000076706898965</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="G11">
-        <v>1.000204542845307</v>
+        <v>1.012698680948454</v>
       </c>
       <c r="H11">
-        <v>0.9998312534784505</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="I11">
-        <v>1.000076706898965</v>
+        <v>1.012698680948454</v>
       </c>
       <c r="J11">
-        <v>0.9996931884475553</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="K11">
-        <v>1.000076706898965</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="L11">
-        <v>1.000076706898965</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="M11">
-        <v>0.9998849476732601</v>
+        <v>1.004762006547939</v>
       </c>
       <c r="N11">
-        <v>0.9998849476732601</v>
+        <v>1.004762006547939</v>
       </c>
       <c r="O11">
-        <v>0.9998670496083236</v>
+        <v>1.005502763472779</v>
       </c>
       <c r="P11">
-        <v>0.9999488674151618</v>
+        <v>1.002116448414433</v>
       </c>
       <c r="Q11">
-        <v>0.9999488674151618</v>
+        <v>1.002116448414433</v>
       </c>
       <c r="R11">
-        <v>0.9999808272861126</v>
+        <v>1.000793669347681</v>
       </c>
       <c r="S11">
-        <v>0.9999808272861126</v>
+        <v>1.000793669347681</v>
       </c>
       <c r="T11">
-        <v>0.9999931842447013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>1.000282194503564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000120094216191</v>
+        <v>0.9986290186210546</v>
       </c>
       <c r="D12">
-        <v>0.9995196357321919</v>
+        <v>1.001661799442105</v>
       </c>
       <c r="E12">
-        <v>1.000120094216191</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="F12">
-        <v>1.000120094216191</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="G12">
-        <v>1.000320241021014</v>
+        <v>0.9975073054526308</v>
       </c>
       <c r="H12">
-        <v>0.9997357961980129</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="I12">
-        <v>1.000120094216191</v>
+        <v>0.9975073054526308</v>
       </c>
       <c r="J12">
-        <v>0.9995196357321919</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="K12">
-        <v>1.000120094216191</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="L12">
-        <v>1.000120094216191</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="M12">
-        <v>0.9998198649741916</v>
+        <v>0.9990652411842096</v>
       </c>
       <c r="N12">
-        <v>0.9998198649741916</v>
+        <v>0.9990652411842096</v>
       </c>
       <c r="O12">
-        <v>0.9997918420487988</v>
+        <v>0.998919833663158</v>
       </c>
       <c r="P12">
-        <v>0.9999199413881916</v>
+        <v>0.9995845530947358</v>
       </c>
       <c r="Q12">
-        <v>0.9999199413881916</v>
+        <v>0.9995845530947358</v>
       </c>
       <c r="R12">
-        <v>0.9999699795951915</v>
+        <v>0.999844209049999</v>
       </c>
       <c r="S12">
-        <v>0.9999699795951915</v>
+        <v>0.999844209049999</v>
       </c>
       <c r="T12">
-        <v>0.9999893259332988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9999446090438594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000032580109521</v>
+        <v>1.001076354110897</v>
       </c>
       <c r="D13">
-        <v>0.9998696851522245</v>
+        <v>0.9986953283814816</v>
       </c>
       <c r="E13">
-        <v>1.000032580109521</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="F13">
-        <v>1.000032580109521</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="G13">
-        <v>1.000086877963037</v>
+        <v>1.001957007622136</v>
       </c>
       <c r="H13">
-        <v>0.9999283311509325</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="I13">
-        <v>1.000032580109521</v>
+        <v>1.001957007622136</v>
       </c>
       <c r="J13">
-        <v>0.9998696851522245</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="K13">
-        <v>1.000032580109521</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="L13">
-        <v>1.000032580109521</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="M13">
-        <v>0.9999511326308725</v>
+        <v>1.000733880518444</v>
       </c>
       <c r="N13">
-        <v>0.9999511326308725</v>
+        <v>1.000733880518444</v>
       </c>
       <c r="O13">
-        <v>0.9999435321375593</v>
+        <v>1.000848038382595</v>
       </c>
       <c r="P13">
-        <v>0.999978281790422</v>
+        <v>1.00032617148388</v>
       </c>
       <c r="Q13">
-        <v>0.999978281790422</v>
+        <v>1.00032617148388</v>
       </c>
       <c r="R13">
-        <v>0.9999918563701966</v>
+        <v>1.000122316966599</v>
       </c>
       <c r="S13">
-        <v>0.9999918563701966</v>
+        <v>1.000122316966599</v>
       </c>
       <c r="T13">
-        <v>0.9999971057657926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.000043491726462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.008932394824936</v>
+        <v>0.9905446300000009</v>
       </c>
       <c r="D14">
-        <v>0.9642704642877111</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="E14">
-        <v>1.008932394824936</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="F14">
-        <v>1.008932394824936</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="G14">
-        <v>1.023819690784401</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="H14">
-        <v>0.9803487537850353</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="I14">
-        <v>1.008932394824936</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="J14">
-        <v>0.9642704642877111</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="K14">
-        <v>1.008932394824936</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="L14">
-        <v>1.008932394824936</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="M14">
-        <v>0.9866014295563236</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="N14">
-        <v>0.9866014295563236</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="O14">
-        <v>0.9845172042992275</v>
+        <v>0.9925503133333331</v>
       </c>
       <c r="P14">
-        <v>0.9940450846458612</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="Q14">
-        <v>0.9940450846458612</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="R14">
-        <v>0.9977669121906299</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="S14">
-        <v>0.9977669121906299</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="T14">
-        <v>0.9992060155553261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0.9996179733333328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002398478429737</v>
+        <v>0.99054463</v>
       </c>
       <c r="D15">
-        <v>0.9904061168911404</v>
+        <v>1.0114611</v>
       </c>
       <c r="E15">
-        <v>1.002398478429737</v>
+        <v>1.0042979</v>
       </c>
       <c r="F15">
-        <v>1.002398478429737</v>
+        <v>1.0042979</v>
       </c>
       <c r="G15">
-        <v>1.006395918014905</v>
+        <v>0.98280841</v>
       </c>
       <c r="H15">
-        <v>0.9947233633050212</v>
+        <v>1.0042979</v>
       </c>
       <c r="I15">
-        <v>1.002398478429737</v>
+        <v>0.98280841</v>
       </c>
       <c r="J15">
-        <v>0.9904061168911404</v>
+        <v>1.0042979</v>
       </c>
       <c r="K15">
-        <v>1.002398478429737</v>
+        <v>1.0042979</v>
       </c>
       <c r="L15">
-        <v>1.002398478429737</v>
+        <v>1.0042979</v>
       </c>
       <c r="M15">
-        <v>0.9964022976604389</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N15">
-        <v>0.9964022976604389</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O15">
-        <v>0.9958426528752996</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P15">
-        <v>0.9984010245835383</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q15">
-        <v>0.9984010245835383</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R15">
-        <v>0.9994003880450881</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S15">
-        <v>0.9994003880450881</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T15">
-        <v>0.9997868055833797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9996179733333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000291638858</v>
+        <v>1.0378215</v>
       </c>
       <c r="D16">
-        <v>0.9999988472115859</v>
+        <v>0.95415576</v>
       </c>
       <c r="E16">
-        <v>1.000000291638858</v>
+        <v>0.98280841</v>
       </c>
       <c r="F16">
-        <v>1.000000291638858</v>
+        <v>0.98280841</v>
       </c>
       <c r="G16">
-        <v>1.000000767801654</v>
+        <v>1.0687664</v>
       </c>
       <c r="H16">
-        <v>0.9999993678410802</v>
+        <v>0.98280841</v>
       </c>
       <c r="I16">
-        <v>1.000000291638858</v>
+        <v>1.0687664</v>
       </c>
       <c r="J16">
-        <v>0.9999988472115859</v>
+        <v>0.98280841</v>
       </c>
       <c r="K16">
-        <v>1.000000291638858</v>
+        <v>0.98280841</v>
       </c>
       <c r="L16">
-        <v>1.000000291638858</v>
+        <v>0.98280841</v>
       </c>
       <c r="M16">
-        <v>0.9999995694252218</v>
+        <v>1.025787405</v>
       </c>
       <c r="N16">
-        <v>0.9999995694252218</v>
+        <v>1.025787405</v>
       </c>
       <c r="O16">
-        <v>0.999999502230508</v>
+        <v>1.02979877</v>
       </c>
       <c r="P16">
-        <v>0.9999998101631005</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="Q16">
-        <v>0.9999998101631005</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="R16">
-        <v>0.9999999305320397</v>
+        <v>1.0042979075</v>
       </c>
       <c r="S16">
-        <v>0.9999999305320397</v>
+        <v>1.0042979075</v>
       </c>
       <c r="T16">
-        <v>0.9999999762951489</v>
+        <v>1.001528148333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000006110787222</v>
+        <v>0.9994090400000001</v>
       </c>
       <c r="D17">
-        <v>0.9999755728655251</v>
+        <v>1.0007163</v>
       </c>
       <c r="E17">
-        <v>1.000006110787222</v>
+        <v>1.0002686</v>
       </c>
       <c r="F17">
-        <v>1.000006110787222</v>
+        <v>1.0002686</v>
       </c>
       <c r="G17">
-        <v>1.000016284015719</v>
+        <v>0.99892553</v>
       </c>
       <c r="H17">
-        <v>0.9999865667920821</v>
+        <v>1.0002686</v>
       </c>
       <c r="I17">
-        <v>1.000006110787222</v>
+        <v>0.99892553</v>
       </c>
       <c r="J17">
-        <v>0.9999755728655251</v>
+        <v>1.0002686</v>
       </c>
       <c r="K17">
-        <v>1.000006110787222</v>
+        <v>1.0002686</v>
       </c>
       <c r="L17">
-        <v>1.000006110787222</v>
+        <v>1.0002686</v>
       </c>
       <c r="M17">
-        <v>0.9999908418263737</v>
+        <v>0.999597065</v>
       </c>
       <c r="N17">
-        <v>0.9999908418263737</v>
+        <v>0.999597065</v>
       </c>
       <c r="O17">
-        <v>0.9999894168149431</v>
+        <v>0.99953439</v>
       </c>
       <c r="P17">
-        <v>0.9999959314799899</v>
+        <v>0.9998209100000001</v>
       </c>
       <c r="Q17">
-        <v>0.9999959314799899</v>
+        <v>0.9998209100000001</v>
       </c>
       <c r="R17">
-        <v>0.9999984763067979</v>
+        <v>0.9999328325000001</v>
       </c>
       <c r="S17">
-        <v>0.9999984763067979</v>
+        <v>0.9999328325000001</v>
       </c>
       <c r="T17">
-        <v>0.9999994593391653</v>
+        <v>0.9999761116666668</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000021500551281</v>
+        <v>0.9963732834246577</v>
       </c>
       <c r="D18">
-        <v>0.9999139976177639</v>
+        <v>1.004396027123288</v>
       </c>
       <c r="E18">
-        <v>1.000021500551281</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="F18">
-        <v>1.000021500551281</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="G18">
-        <v>1.00005733345853</v>
+        <v>0.9934059697260273</v>
       </c>
       <c r="H18">
-        <v>0.999952698966476</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="I18">
-        <v>1.000021500551281</v>
+        <v>0.9934059697260273</v>
       </c>
       <c r="J18">
-        <v>0.9999139976177639</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="K18">
-        <v>1.000021500551281</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="L18">
-        <v>1.000021500551281</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="M18">
-        <v>0.9999677490845225</v>
+        <v>0.9975272454109589</v>
       </c>
       <c r="N18">
-        <v>0.9999677490845225</v>
+        <v>0.9975272454109589</v>
       </c>
       <c r="O18">
-        <v>0.9999627323785069</v>
+        <v>0.9971425914155252</v>
       </c>
       <c r="P18">
-        <v>0.9999856662401087</v>
+        <v>0.9989010039726027</v>
       </c>
       <c r="Q18">
-        <v>0.9999856662401087</v>
+        <v>0.9989010039726027</v>
       </c>
       <c r="R18">
-        <v>0.9999946248179018</v>
+        <v>0.9995878832534246</v>
       </c>
       <c r="S18">
-        <v>0.9999946248179018</v>
+        <v>0.9995878832534246</v>
       </c>
       <c r="T18">
-        <v>0.9999980886161023</v>
+        <v>0.9998534739269407</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000050377870045</v>
+        <v>0.9973873331578945</v>
       </c>
       <c r="D19">
-        <v>0.9997985214434387</v>
+        <v>1.003166876315789</v>
       </c>
       <c r="E19">
-        <v>1.000050377870045</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="F19">
-        <v>1.000050377870045</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="G19">
-        <v>1.000134320288022</v>
+        <v>0.9952496973684208</v>
       </c>
       <c r="H19">
-        <v>0.9998891849681729</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="I19">
-        <v>1.000050377870045</v>
+        <v>0.9952496973684208</v>
       </c>
       <c r="J19">
-        <v>0.9997985214434387</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="K19">
-        <v>1.000050377870045</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="L19">
-        <v>1.000050377870045</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="M19">
-        <v>0.9999244496567419</v>
+        <v>0.9982186431578944</v>
       </c>
       <c r="N19">
-        <v>0.9999244496567419</v>
+        <v>0.9982186431578944</v>
       </c>
       <c r="O19">
-        <v>0.9999126947605522</v>
+        <v>0.9979415398245611</v>
       </c>
       <c r="P19">
-        <v>0.9999664257278429</v>
+        <v>0.9992082917543857</v>
       </c>
       <c r="Q19">
-        <v>0.9999664257278429</v>
+        <v>0.9992082917543857</v>
       </c>
       <c r="R19">
-        <v>0.9999874137633934</v>
+        <v>0.9997031160526313</v>
       </c>
       <c r="S19">
-        <v>0.9999874137633934</v>
+        <v>0.9997031160526313</v>
       </c>
       <c r="T19">
-        <v>0.9999955267182946</v>
+        <v>0.9998944456140348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.012938931578947</v>
+      </c>
+      <c r="D20">
+        <v>0.984316445263158</v>
+      </c>
+      <c r="E20">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="F20">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="G20">
+        <v>1.023525342105263</v>
+      </c>
+      <c r="H20">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="I20">
+        <v>1.023525342105263</v>
+      </c>
+      <c r="J20">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="K20">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="L20">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="M20">
+        <v>1.008822003947368</v>
+      </c>
+      <c r="N20">
+        <v>1.008822003947368</v>
+      </c>
+      <c r="O20">
+        <v>1.010194313157895</v>
+      </c>
+      <c r="P20">
+        <v>1.00392089122807</v>
+      </c>
+      <c r="Q20">
+        <v>1.00392089122807</v>
+      </c>
+      <c r="R20">
+        <v>1.001470334868421</v>
+      </c>
+      <c r="S20">
+        <v>1.001470334868421</v>
+      </c>
+      <c r="T20">
+        <v>1.000522786052631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9803487537850353</v>
+      </c>
+      <c r="D21">
+        <v>1.023819690784401</v>
+      </c>
+      <c r="E21">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="F21">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="G21">
+        <v>0.9642704642877111</v>
+      </c>
+      <c r="H21">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="I21">
+        <v>0.9642704642877111</v>
+      </c>
+      <c r="J21">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="K21">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="L21">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="M21">
+        <v>0.9866014295563237</v>
+      </c>
+      <c r="N21">
+        <v>0.9866014295563237</v>
+      </c>
+      <c r="O21">
+        <v>0.9845172042992276</v>
+      </c>
+      <c r="P21">
+        <v>0.9940450846458612</v>
+      </c>
+      <c r="Q21">
+        <v>0.9940450846458612</v>
+      </c>
+      <c r="R21">
+        <v>0.9977669121906299</v>
+      </c>
+      <c r="S21">
+        <v>0.9977669121906299</v>
+      </c>
+      <c r="T21">
+        <v>0.9992060155553261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9947233633050211</v>
+      </c>
+      <c r="D22">
+        <v>1.006395918014905</v>
+      </c>
+      <c r="E22">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="F22">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="G22">
+        <v>0.9904061168911404</v>
+      </c>
+      <c r="H22">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="I22">
+        <v>0.9904061168911404</v>
+      </c>
+      <c r="J22">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="K22">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="L22">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="M22">
+        <v>0.9964022976604389</v>
+      </c>
+      <c r="N22">
+        <v>0.9964022976604389</v>
+      </c>
+      <c r="O22">
+        <v>0.9958426528752996</v>
+      </c>
+      <c r="P22">
+        <v>0.9984010245835383</v>
+      </c>
+      <c r="Q22">
+        <v>0.9984010245835383</v>
+      </c>
+      <c r="R22">
+        <v>0.9994003880450881</v>
+      </c>
+      <c r="S22">
+        <v>0.9994003880450881</v>
+      </c>
+      <c r="T22">
+        <v>0.9997868055833797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9997357961980129</v>
+      </c>
+      <c r="D23">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="E23">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="F23">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="G23">
+        <v>0.9995196357321919</v>
+      </c>
+      <c r="H23">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="I23">
+        <v>0.9995196357321919</v>
+      </c>
+      <c r="J23">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="K23">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="L23">
+        <v>1.000120094216191</v>
+      </c>
+      <c r="M23">
+        <v>0.9998198649741916</v>
+      </c>
+      <c r="N23">
+        <v>0.9998198649741916</v>
+      </c>
+      <c r="O23">
+        <v>0.9997918420487988</v>
+      </c>
+      <c r="P23">
+        <v>0.9999199413881916</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999199413881916</v>
+      </c>
+      <c r="R23">
+        <v>0.9999699795951915</v>
+      </c>
+      <c r="S23">
+        <v>0.9999699795951915</v>
+      </c>
+      <c r="T23">
+        <v>0.9999893259332988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9999283311509325</v>
+      </c>
+      <c r="D24">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="E24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="F24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="G24">
+        <v>0.9998696851522245</v>
+      </c>
+      <c r="H24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="I24">
+        <v>0.9998696851522245</v>
+      </c>
+      <c r="J24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="K24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="L24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="M24">
+        <v>0.9999511326308725</v>
+      </c>
+      <c r="N24">
+        <v>0.9999511326308725</v>
+      </c>
+      <c r="O24">
+        <v>0.9999435321375593</v>
+      </c>
+      <c r="P24">
+        <v>0.999978281790422</v>
+      </c>
+      <c r="Q24">
+        <v>0.999978281790422</v>
+      </c>
+      <c r="R24">
+        <v>0.9999918563701966</v>
+      </c>
+      <c r="S24">
+        <v>0.9999918563701966</v>
+      </c>
+      <c r="T24">
+        <v>0.9999971057657926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.025136069581616</v>
+      </c>
+      <c r="D25">
+        <v>0.969532040033978</v>
+      </c>
+      <c r="E25">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="F25">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="G25">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="H25">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="I25">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="J25">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="K25">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="L25">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="M25">
+        <v>1.017138230763946</v>
+      </c>
+      <c r="N25">
+        <v>1.017138230763946</v>
+      </c>
+      <c r="O25">
+        <v>1.019804177036503</v>
+      </c>
+      <c r="P25">
+        <v>1.007616992462856</v>
+      </c>
+      <c r="Q25">
+        <v>1.007616992462856</v>
+      </c>
+      <c r="R25">
+        <v>1.002856373312311</v>
+      </c>
+      <c r="S25">
+        <v>1.002856373312311</v>
+      </c>
+      <c r="T25">
+        <v>1.001015600477473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.006699670278214</v>
+      </c>
+      <c r="D26">
+        <v>0.9918791945001936</v>
+      </c>
+      <c r="E26">
+        <v>0.9969546944137677</v>
+      </c>
+      <c r="F26">
+        <v>0.9969546944137677</v>
+      </c>
+      <c r="G26">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="H26">
+        <v>0.9969546944137677</v>
+      </c>
+      <c r="I26">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="J26">
+        <v>0.9969546944137677</v>
+      </c>
+      <c r="K26">
+        <v>0.9969546944137677</v>
+      </c>
+      <c r="L26">
+        <v>0.9969546944137677</v>
+      </c>
+      <c r="M26">
+        <v>1.004567951325689</v>
+      </c>
+      <c r="N26">
+        <v>1.004567951325689</v>
+      </c>
+      <c r="O26">
+        <v>1.005278524309864</v>
+      </c>
+      <c r="P26">
+        <v>1.002030199021715</v>
+      </c>
+      <c r="Q26">
+        <v>1.002030199021715</v>
+      </c>
+      <c r="R26">
+        <v>1.000761322869728</v>
+      </c>
+      <c r="S26">
+        <v>1.000761322869728</v>
+      </c>
+      <c r="T26">
+        <v>1.000270692709553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9994364608848769</v>
+      </c>
+      <c r="D27">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="E27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="F27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="G27">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="H27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="I27">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="J27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="K27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="L27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="M27">
+        <v>0.9996157795267395</v>
+      </c>
+      <c r="N27">
+        <v>0.9996157795267395</v>
+      </c>
+      <c r="O27">
+        <v>0.9995560066461188</v>
+      </c>
+      <c r="P27">
+        <v>0.9998292430651987</v>
+      </c>
+      <c r="Q27">
+        <v>0.9998292430651987</v>
+      </c>
+      <c r="R27">
+        <v>0.9999359748344283</v>
+      </c>
+      <c r="S27">
+        <v>0.9999359748344283</v>
+      </c>
+      <c r="T27">
+        <v>0.9999772402498653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.001845963894843</v>
+      </c>
+      <c r="D28">
+        <v>0.9977624624507604</v>
+      </c>
+      <c r="E28">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="F28">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="G28">
+        <v>1.003356299931753</v>
+      </c>
+      <c r="H28">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="I28">
+        <v>1.003356299931753</v>
+      </c>
+      <c r="J28">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="K28">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="L28">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="M28">
+        <v>1.001258613958503</v>
+      </c>
+      <c r="N28">
+        <v>1.001258613958503</v>
+      </c>
+      <c r="O28">
+        <v>1.001454397270616</v>
+      </c>
+      <c r="P28">
+        <v>1.000559385300753</v>
+      </c>
+      <c r="Q28">
+        <v>1.000559385300753</v>
+      </c>
+      <c r="R28">
+        <v>1.000209770971878</v>
+      </c>
+      <c r="S28">
+        <v>1.000209770971878</v>
+      </c>
+      <c r="T28">
+        <v>1.000074585038852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.003350587065245</v>
+      </c>
+      <c r="D29">
+        <v>0.9959386793346232</v>
+      </c>
+      <c r="E29">
+        <v>0.9984770051812052</v>
+      </c>
+      <c r="F29">
+        <v>0.9984770051812052</v>
+      </c>
+      <c r="G29">
+        <v>1.00609198441663</v>
+      </c>
+      <c r="H29">
+        <v>0.9984770051812052</v>
+      </c>
+      <c r="I29">
+        <v>1.00609198441663</v>
+      </c>
+      <c r="J29">
+        <v>0.9984770051812052</v>
+      </c>
+      <c r="K29">
+        <v>0.9984770051812052</v>
+      </c>
+      <c r="L29">
+        <v>0.9984770051812052</v>
+      </c>
+      <c r="M29">
+        <v>1.002284494798917</v>
+      </c>
+      <c r="N29">
+        <v>1.002284494798917</v>
+      </c>
+      <c r="O29">
+        <v>1.002639858887693</v>
+      </c>
+      <c r="P29">
+        <v>1.001015331593013</v>
+      </c>
+      <c r="Q29">
+        <v>1.001015331593013</v>
+      </c>
+      <c r="R29">
+        <v>1.000380749990061</v>
+      </c>
+      <c r="S29">
+        <v>1.000380749990061</v>
+      </c>
+      <c r="T29">
+        <v>1.000135377726685</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00488821211063</v>
+        <v>0.9986984847922966</v>
       </c>
       <c r="D4">
-        <v>0.9940748975781152</v>
+        <v>1.001577596349724</v>
       </c>
       <c r="E4">
-        <v>0.997778089440058</v>
+        <v>1.000591601450591</v>
       </c>
       <c r="F4">
-        <v>0.997778089440058</v>
+        <v>1.000591601450591</v>
       </c>
       <c r="G4">
-        <v>1.008887654385021</v>
+        <v>0.9976336060975058</v>
       </c>
       <c r="H4">
-        <v>0.997778089440058</v>
+        <v>1.000591601450591</v>
       </c>
       <c r="I4">
-        <v>1.008887654385021</v>
+        <v>0.9976336060975058</v>
       </c>
       <c r="J4">
-        <v>0.997778089440058</v>
+        <v>1.000591601450591</v>
       </c>
       <c r="K4">
-        <v>0.997778089440058</v>
+        <v>1.000591601450591</v>
       </c>
       <c r="L4">
-        <v>0.997778089440058</v>
+        <v>1.000591601450591</v>
       </c>
       <c r="M4">
-        <v>1.00333287191254</v>
+        <v>0.9991126037740485</v>
       </c>
       <c r="N4">
-        <v>1.00333287191254</v>
+        <v>0.9991126037740485</v>
       </c>
       <c r="O4">
-        <v>1.003851318645236</v>
+        <v>0.9989745641134645</v>
       </c>
       <c r="P4">
-        <v>1.001481277755046</v>
+        <v>0.9996056029995627</v>
       </c>
       <c r="Q4">
-        <v>1.001481277755046</v>
+        <v>0.9996056029995627</v>
       </c>
       <c r="R4">
-        <v>1.000555480676299</v>
+        <v>0.9998521026123199</v>
       </c>
       <c r="S4">
-        <v>1.000555480676299</v>
+        <v>0.9998521026123199</v>
       </c>
       <c r="T4">
-        <v>1.00019750539899</v>
+        <v>0.9999474152652167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9985915733357362</v>
+        <v>1.015252498150222</v>
       </c>
       <c r="D5">
-        <v>1.001707187132565</v>
+        <v>0.9815121182034636</v>
       </c>
       <c r="E5">
-        <v>1.000640197917868</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="F5">
-        <v>1.000640197917868</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="G5">
-        <v>0.9974392217363117</v>
+        <v>1.027731828751026</v>
       </c>
       <c r="H5">
-        <v>1.000640197917868</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="I5">
-        <v>0.9974392217363117</v>
+        <v>1.027731828751026</v>
       </c>
       <c r="J5">
-        <v>1.000640197917868</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="K5">
-        <v>1.000640197917868</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="L5">
-        <v>1.000640197917868</v>
+        <v>0.99306704431791</v>
       </c>
       <c r="M5">
-        <v>0.99903970982709</v>
+        <v>1.010399436534468</v>
       </c>
       <c r="N5">
-        <v>0.99903970982709</v>
+        <v>1.010399436534468</v>
       </c>
       <c r="O5">
-        <v>0.9988903309966387</v>
+        <v>1.012017123739719</v>
       </c>
       <c r="P5">
-        <v>0.9995732058573493</v>
+        <v>1.004621972462282</v>
       </c>
       <c r="Q5">
-        <v>0.9995732058573493</v>
+        <v>1.004621972462282</v>
       </c>
       <c r="R5">
-        <v>0.9998399538724791</v>
+        <v>1.001733240426189</v>
       </c>
       <c r="S5">
-        <v>0.9998399538724791</v>
+        <v>1.001733240426189</v>
       </c>
       <c r="T5">
-        <v>0.9999430959930362</v>
+        <v>1.00061626300974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9946076974743521</v>
+        <v>1.00488821211063</v>
       </c>
       <c r="D6">
-        <v>1.006536148098773</v>
+        <v>0.9940748975781152</v>
       </c>
       <c r="E6">
-        <v>1.002451050852619</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="F6">
-        <v>1.002451050852619</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="G6">
-        <v>0.990195807953823</v>
+        <v>1.008887654385021</v>
       </c>
       <c r="H6">
-        <v>1.002451050852619</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="I6">
-        <v>0.990195807953823</v>
+        <v>1.008887654385021</v>
       </c>
       <c r="J6">
-        <v>1.002451050852619</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="K6">
-        <v>1.002451050852619</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="L6">
-        <v>1.002451050852619</v>
+        <v>0.997778089440058</v>
       </c>
       <c r="M6">
-        <v>0.9963234294032213</v>
+        <v>1.00333287191254</v>
       </c>
       <c r="N6">
-        <v>0.9963234294032213</v>
+        <v>1.00333287191254</v>
       </c>
       <c r="O6">
-        <v>0.9957515187602649</v>
+        <v>1.003851318645236</v>
       </c>
       <c r="P6">
-        <v>0.9983659698863541</v>
+        <v>1.001481277755046</v>
       </c>
       <c r="Q6">
-        <v>0.9983659698863541</v>
+        <v>1.001481277755046</v>
       </c>
       <c r="R6">
-        <v>0.9993872401279205</v>
+        <v>1.000555480676299</v>
       </c>
       <c r="S6">
-        <v>0.9993872401279205</v>
+        <v>1.000555480676299</v>
       </c>
       <c r="T6">
-        <v>0.9997821343474679</v>
+        <v>1.00019750539899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998974180293286</v>
+        <v>0.9985915733357362</v>
       </c>
       <c r="D7">
-        <v>1.000124343346317</v>
+        <v>1.001707187132565</v>
       </c>
       <c r="E7">
-        <v>1.000046633451618</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="F7">
-        <v>1.000046633451618</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="G7">
-        <v>0.9998134838890762</v>
+        <v>0.9974392217363117</v>
       </c>
       <c r="H7">
-        <v>1.000046633451618</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="I7">
-        <v>0.9998134838890762</v>
+        <v>0.9974392217363117</v>
       </c>
       <c r="J7">
-        <v>1.000046633451618</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="K7">
-        <v>1.000046633451618</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="L7">
-        <v>1.000046633451618</v>
+        <v>1.000640197917868</v>
       </c>
       <c r="M7">
-        <v>0.9999300586703469</v>
+        <v>0.99903970982709</v>
       </c>
       <c r="N7">
-        <v>0.9999300586703469</v>
+        <v>0.99903970982709</v>
       </c>
       <c r="O7">
-        <v>0.9999191784566741</v>
+        <v>0.9988903309966387</v>
       </c>
       <c r="P7">
-        <v>0.9999689169307704</v>
+        <v>0.9995732058573493</v>
       </c>
       <c r="Q7">
-        <v>0.9999689169307704</v>
+        <v>0.9995732058573493</v>
       </c>
       <c r="R7">
-        <v>0.9999883460609822</v>
+        <v>0.9998399538724791</v>
       </c>
       <c r="S7">
-        <v>0.9999883460609822</v>
+        <v>0.9998399538724791</v>
       </c>
       <c r="T7">
-        <v>0.9999958576032624</v>
+        <v>0.9999430959930362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999865667920821</v>
+        <v>0.9946076974743521</v>
       </c>
       <c r="D8">
-        <v>1.000016284015719</v>
+        <v>1.006536148098773</v>
       </c>
       <c r="E8">
-        <v>1.000006110787222</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="F8">
-        <v>1.000006110787222</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="G8">
-        <v>0.9999755728655251</v>
+        <v>0.990195807953823</v>
       </c>
       <c r="H8">
-        <v>1.000006110787222</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="I8">
-        <v>0.9999755728655251</v>
+        <v>0.990195807953823</v>
       </c>
       <c r="J8">
-        <v>1.000006110787222</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="K8">
-        <v>1.000006110787222</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="L8">
-        <v>1.000006110787222</v>
+        <v>1.002451050852619</v>
       </c>
       <c r="M8">
-        <v>0.9999908418263738</v>
+        <v>0.9963234294032213</v>
       </c>
       <c r="N8">
-        <v>0.9999908418263738</v>
+        <v>0.9963234294032213</v>
       </c>
       <c r="O8">
-        <v>0.9999894168149432</v>
+        <v>0.9957515187602649</v>
       </c>
       <c r="P8">
-        <v>0.9999959314799899</v>
+        <v>0.9983659698863541</v>
       </c>
       <c r="Q8">
-        <v>0.9999959314799899</v>
+        <v>0.9983659698863541</v>
       </c>
       <c r="R8">
-        <v>0.9999984763067981</v>
+        <v>0.9993872401279205</v>
       </c>
       <c r="S8">
-        <v>0.9999984763067981</v>
+        <v>0.9993872401279205</v>
       </c>
       <c r="T8">
-        <v>0.9999994593391657</v>
+        <v>0.9997821343474679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.99970341671383</v>
+        <v>0.9998974180293286</v>
       </c>
       <c r="D9">
-        <v>1.000359494927467</v>
+        <v>1.000124343346317</v>
       </c>
       <c r="E9">
-        <v>1.000134816593357</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="F9">
-        <v>1.000134816593357</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="G9">
-        <v>0.99946075605054</v>
+        <v>0.9998134838890762</v>
       </c>
       <c r="H9">
-        <v>1.000134816593357</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="I9">
-        <v>0.99946075605054</v>
+        <v>0.9998134838890762</v>
       </c>
       <c r="J9">
-        <v>1.000134816593357</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="K9">
-        <v>1.000134816593357</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="L9">
-        <v>1.000134816593357</v>
+        <v>1.000046633451618</v>
       </c>
       <c r="M9">
-        <v>0.9997977863219487</v>
+        <v>0.9999300586703469</v>
       </c>
       <c r="N9">
-        <v>0.9997977863219487</v>
+        <v>0.9999300586703469</v>
       </c>
       <c r="O9">
-        <v>0.9997663297859091</v>
+        <v>0.9999191784566741</v>
       </c>
       <c r="P9">
-        <v>0.9999101297457517</v>
+        <v>0.9999689169307704</v>
       </c>
       <c r="Q9">
-        <v>0.9999101297457517</v>
+        <v>0.9999689169307704</v>
       </c>
       <c r="R9">
-        <v>0.9999663014576531</v>
+        <v>0.9999883460609822</v>
       </c>
       <c r="S9">
-        <v>0.9999663014576531</v>
+        <v>0.9999883460609822</v>
       </c>
       <c r="T9">
-        <v>0.9999880195786514</v>
+        <v>0.9999958576032624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9945272571423595</v>
+        <v>0.9999865667920821</v>
       </c>
       <c r="D10">
-        <v>1.006633651402921</v>
+        <v>1.000016284015719</v>
       </c>
       <c r="E10">
-        <v>1.002487614532823</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="F10">
-        <v>1.002487614532823</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="G10">
-        <v>0.9900495539964854</v>
+        <v>0.9999755728655251</v>
       </c>
       <c r="H10">
-        <v>1.002487614532823</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="I10">
-        <v>0.9900495539964854</v>
+        <v>0.9999755728655251</v>
       </c>
       <c r="J10">
-        <v>1.002487614532823</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="K10">
-        <v>1.002487614532823</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="L10">
-        <v>1.002487614532823</v>
+        <v>1.000006110787222</v>
       </c>
       <c r="M10">
-        <v>0.9962685842646539</v>
+        <v>0.9999908418263738</v>
       </c>
       <c r="N10">
-        <v>0.9962685842646539</v>
+        <v>0.9999908418263738</v>
       </c>
       <c r="O10">
-        <v>0.9956881418905558</v>
+        <v>0.9999894168149432</v>
       </c>
       <c r="P10">
-        <v>0.9983415943540436</v>
+        <v>0.9999959314799899</v>
       </c>
       <c r="Q10">
-        <v>0.9983415943540436</v>
+        <v>0.9999959314799899</v>
       </c>
       <c r="R10">
-        <v>0.9993780993987382</v>
+        <v>0.9999984763067981</v>
       </c>
       <c r="S10">
-        <v>0.9993780993987382</v>
+        <v>0.9999984763067981</v>
       </c>
       <c r="T10">
-        <v>0.9997788843567056</v>
+        <v>0.9999994593391657</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00698427732246</v>
+        <v>0.99970341671383</v>
       </c>
       <c r="D11">
-        <v>0.9915342123082009</v>
+        <v>1.000359494927467</v>
       </c>
       <c r="E11">
-        <v>0.9968253321474225</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="F11">
-        <v>0.9968253321474225</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="G11">
-        <v>1.012698680948454</v>
+        <v>0.99946075605054</v>
       </c>
       <c r="H11">
-        <v>0.9968253321474225</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="I11">
-        <v>1.012698680948454</v>
+        <v>0.99946075605054</v>
       </c>
       <c r="J11">
-        <v>0.9968253321474225</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="K11">
-        <v>0.9968253321474225</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="L11">
-        <v>0.9968253321474225</v>
+        <v>1.000134816593357</v>
       </c>
       <c r="M11">
-        <v>1.004762006547939</v>
+        <v>0.9997977863219487</v>
       </c>
       <c r="N11">
-        <v>1.004762006547939</v>
+        <v>0.9997977863219487</v>
       </c>
       <c r="O11">
-        <v>1.005502763472779</v>
+        <v>0.9997663297859091</v>
       </c>
       <c r="P11">
-        <v>1.002116448414433</v>
+        <v>0.9999101297457517</v>
       </c>
       <c r="Q11">
-        <v>1.002116448414433</v>
+        <v>0.9999101297457517</v>
       </c>
       <c r="R11">
-        <v>1.000793669347681</v>
+        <v>0.9999663014576531</v>
       </c>
       <c r="S11">
-        <v>1.000793669347681</v>
+        <v>0.9999663014576531</v>
       </c>
       <c r="T11">
-        <v>1.000282194503564</v>
+        <v>0.9999880195786514</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9986290186210546</v>
+        <v>0.9945272571423595</v>
       </c>
       <c r="D12">
-        <v>1.001661799442105</v>
+        <v>1.006633651402921</v>
       </c>
       <c r="E12">
-        <v>1.000623176915789</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="F12">
-        <v>1.000623176915789</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="G12">
-        <v>0.9975073054526308</v>
+        <v>0.9900495539964854</v>
       </c>
       <c r="H12">
-        <v>1.000623176915789</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="I12">
-        <v>0.9975073054526308</v>
+        <v>0.9900495539964854</v>
       </c>
       <c r="J12">
-        <v>1.000623176915789</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="K12">
-        <v>1.000623176915789</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="L12">
-        <v>1.000623176915789</v>
+        <v>1.002487614532823</v>
       </c>
       <c r="M12">
-        <v>0.9990652411842096</v>
+        <v>0.9962685842646539</v>
       </c>
       <c r="N12">
-        <v>0.9990652411842096</v>
+        <v>0.9962685842646539</v>
       </c>
       <c r="O12">
-        <v>0.998919833663158</v>
+        <v>0.9956881418905558</v>
       </c>
       <c r="P12">
-        <v>0.9995845530947358</v>
+        <v>0.9983415943540436</v>
       </c>
       <c r="Q12">
-        <v>0.9995845530947358</v>
+        <v>0.9983415943540436</v>
       </c>
       <c r="R12">
-        <v>0.999844209049999</v>
+        <v>0.9993780993987382</v>
       </c>
       <c r="S12">
-        <v>0.999844209049999</v>
+        <v>0.9993780993987382</v>
       </c>
       <c r="T12">
-        <v>0.9999446090438594</v>
+        <v>0.9997788843567056</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001076354110897</v>
+        <v>1.00698427732246</v>
       </c>
       <c r="D13">
-        <v>0.9986953283814816</v>
+        <v>0.9915342123082009</v>
       </c>
       <c r="E13">
-        <v>0.9995107534147528</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="F13">
-        <v>0.9995107534147528</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="G13">
-        <v>1.001957007622136</v>
+        <v>1.012698680948454</v>
       </c>
       <c r="H13">
-        <v>0.9995107534147528</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="I13">
-        <v>1.001957007622136</v>
+        <v>1.012698680948454</v>
       </c>
       <c r="J13">
-        <v>0.9995107534147528</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="K13">
-        <v>0.9995107534147528</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="L13">
-        <v>0.9995107534147528</v>
+        <v>0.9968253321474225</v>
       </c>
       <c r="M13">
-        <v>1.000733880518444</v>
+        <v>1.004762006547939</v>
       </c>
       <c r="N13">
-        <v>1.000733880518444</v>
+        <v>1.004762006547939</v>
       </c>
       <c r="O13">
-        <v>1.000848038382595</v>
+        <v>1.005502763472779</v>
       </c>
       <c r="P13">
-        <v>1.00032617148388</v>
+        <v>1.002116448414433</v>
       </c>
       <c r="Q13">
-        <v>1.00032617148388</v>
+        <v>1.002116448414433</v>
       </c>
       <c r="R13">
-        <v>1.000122316966599</v>
+        <v>1.000793669347681</v>
       </c>
       <c r="S13">
-        <v>1.000122316966599</v>
+        <v>1.000793669347681</v>
       </c>
       <c r="T13">
-        <v>1.000043491726462</v>
+        <v>1.000282194503564</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9905446300000009</v>
+        <v>0.9986290186210546</v>
       </c>
       <c r="D14">
-        <v>1.011461099999999</v>
+        <v>1.001661799442105</v>
       </c>
       <c r="E14">
-        <v>1.004297899999999</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="F14">
-        <v>1.004297899999999</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="G14">
-        <v>0.9828084099999992</v>
+        <v>0.9975073054526308</v>
       </c>
       <c r="H14">
-        <v>1.004297899999999</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="I14">
-        <v>0.9828084099999992</v>
+        <v>0.9975073054526308</v>
       </c>
       <c r="J14">
-        <v>1.004297899999999</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="K14">
-        <v>1.004297899999999</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="L14">
-        <v>1.004297899999999</v>
+        <v>1.000623176915789</v>
       </c>
       <c r="M14">
-        <v>0.9935531549999991</v>
+        <v>0.9990652411842096</v>
       </c>
       <c r="N14">
-        <v>0.9935531549999991</v>
+        <v>0.9990652411842096</v>
       </c>
       <c r="O14">
-        <v>0.9925503133333331</v>
+        <v>0.998919833663158</v>
       </c>
       <c r="P14">
-        <v>0.9971347366666657</v>
+        <v>0.9995845530947358</v>
       </c>
       <c r="Q14">
-        <v>0.9971347366666657</v>
+        <v>0.9995845530947358</v>
       </c>
       <c r="R14">
-        <v>0.9989255274999991</v>
+        <v>0.999844209049999</v>
       </c>
       <c r="S14">
-        <v>0.9989255274999991</v>
+        <v>0.999844209049999</v>
       </c>
       <c r="T14">
-        <v>0.9996179733333328</v>
+        <v>0.9999446090438594</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.99054463</v>
+        <v>1.001076354110897</v>
       </c>
       <c r="D15">
-        <v>1.0114611</v>
+        <v>0.9986953283814816</v>
       </c>
       <c r="E15">
-        <v>1.0042979</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="F15">
-        <v>1.0042979</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="G15">
-        <v>0.98280841</v>
+        <v>1.001957007622136</v>
       </c>
       <c r="H15">
-        <v>1.0042979</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="I15">
-        <v>0.98280841</v>
+        <v>1.001957007622136</v>
       </c>
       <c r="J15">
-        <v>1.0042979</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="K15">
-        <v>1.0042979</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="L15">
-        <v>1.0042979</v>
+        <v>0.9995107534147528</v>
       </c>
       <c r="M15">
-        <v>0.9935531550000001</v>
+        <v>1.000733880518444</v>
       </c>
       <c r="N15">
-        <v>0.9935531550000001</v>
+        <v>1.000733880518444</v>
       </c>
       <c r="O15">
-        <v>0.9925503133333334</v>
+        <v>1.000848038382595</v>
       </c>
       <c r="P15">
-        <v>0.9971347366666667</v>
+        <v>1.00032617148388</v>
       </c>
       <c r="Q15">
-        <v>0.9971347366666667</v>
+        <v>1.00032617148388</v>
       </c>
       <c r="R15">
-        <v>0.9989255275000001</v>
+        <v>1.000122316966599</v>
       </c>
       <c r="S15">
-        <v>0.9989255275000001</v>
+        <v>1.000122316966599</v>
       </c>
       <c r="T15">
-        <v>0.9996179733333334</v>
+        <v>1.000043491726462</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0378215</v>
+        <v>0.9905446300000009</v>
       </c>
       <c r="D16">
-        <v>0.95415576</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="E16">
-        <v>0.98280841</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="F16">
-        <v>0.98280841</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="G16">
-        <v>1.0687664</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="H16">
-        <v>0.98280841</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="I16">
-        <v>1.0687664</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="J16">
-        <v>0.98280841</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="K16">
-        <v>0.98280841</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="L16">
-        <v>0.98280841</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="M16">
-        <v>1.025787405</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="N16">
-        <v>1.025787405</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="O16">
-        <v>1.02979877</v>
+        <v>0.9925503133333331</v>
       </c>
       <c r="P16">
-        <v>1.011461073333333</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="Q16">
-        <v>1.011461073333333</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="R16">
-        <v>1.0042979075</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="S16">
-        <v>1.0042979075</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="T16">
-        <v>1.001528148333333</v>
+        <v>0.9996179733333328</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9994090400000001</v>
+        <v>0.99054463</v>
       </c>
       <c r="D17">
-        <v>1.0007163</v>
+        <v>1.0114611</v>
       </c>
       <c r="E17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="F17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="G17">
-        <v>0.99892553</v>
+        <v>0.98280841</v>
       </c>
       <c r="H17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="I17">
-        <v>0.99892553</v>
+        <v>0.98280841</v>
       </c>
       <c r="J17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="K17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="L17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="M17">
-        <v>0.999597065</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N17">
-        <v>0.999597065</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O17">
-        <v>0.99953439</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P17">
-        <v>0.9998209100000001</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q17">
-        <v>0.9998209100000001</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R17">
-        <v>0.9999328325000001</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S17">
-        <v>0.9999328325000001</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T17">
-        <v>0.9999761116666668</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9963732834246577</v>
+        <v>1.0378215</v>
       </c>
       <c r="D18">
-        <v>1.004396027123288</v>
+        <v>0.95415576</v>
       </c>
       <c r="E18">
-        <v>1.001648521095891</v>
+        <v>0.98280841</v>
       </c>
       <c r="F18">
-        <v>1.001648521095891</v>
+        <v>0.98280841</v>
       </c>
       <c r="G18">
-        <v>0.9934059697260273</v>
+        <v>1.0687664</v>
       </c>
       <c r="H18">
-        <v>1.001648521095891</v>
+        <v>0.98280841</v>
       </c>
       <c r="I18">
-        <v>0.9934059697260273</v>
+        <v>1.0687664</v>
       </c>
       <c r="J18">
-        <v>1.001648521095891</v>
+        <v>0.98280841</v>
       </c>
       <c r="K18">
-        <v>1.001648521095891</v>
+        <v>0.98280841</v>
       </c>
       <c r="L18">
-        <v>1.001648521095891</v>
+        <v>0.98280841</v>
       </c>
       <c r="M18">
-        <v>0.9975272454109589</v>
+        <v>1.025787405</v>
       </c>
       <c r="N18">
-        <v>0.9975272454109589</v>
+        <v>1.025787405</v>
       </c>
       <c r="O18">
-        <v>0.9971425914155252</v>
+        <v>1.02979877</v>
       </c>
       <c r="P18">
-        <v>0.9989010039726027</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="Q18">
-        <v>0.9989010039726027</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="R18">
-        <v>0.9995878832534246</v>
+        <v>1.0042979075</v>
       </c>
       <c r="S18">
-        <v>0.9995878832534246</v>
+        <v>1.0042979075</v>
       </c>
       <c r="T18">
-        <v>0.9998534739269407</v>
+        <v>1.001528148333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9973873331578945</v>
+        <v>0.9994090400000001</v>
       </c>
       <c r="D19">
-        <v>1.003166876315789</v>
+        <v>1.0007163</v>
       </c>
       <c r="E19">
-        <v>1.001187588947368</v>
+        <v>1.0002686</v>
       </c>
       <c r="F19">
-        <v>1.001187588947368</v>
+        <v>1.0002686</v>
       </c>
       <c r="G19">
-        <v>0.9952496973684208</v>
+        <v>0.99892553</v>
       </c>
       <c r="H19">
-        <v>1.001187588947368</v>
+        <v>1.0002686</v>
       </c>
       <c r="I19">
-        <v>0.9952496973684208</v>
+        <v>0.99892553</v>
       </c>
       <c r="J19">
-        <v>1.001187588947368</v>
+        <v>1.0002686</v>
       </c>
       <c r="K19">
-        <v>1.001187588947368</v>
+        <v>1.0002686</v>
       </c>
       <c r="L19">
-        <v>1.001187588947368</v>
+        <v>1.0002686</v>
       </c>
       <c r="M19">
-        <v>0.9982186431578944</v>
+        <v>0.999597065</v>
       </c>
       <c r="N19">
-        <v>0.9982186431578944</v>
+        <v>0.999597065</v>
       </c>
       <c r="O19">
-        <v>0.9979415398245611</v>
+        <v>0.99953439</v>
       </c>
       <c r="P19">
-        <v>0.9992082917543857</v>
+        <v>0.9998209100000001</v>
       </c>
       <c r="Q19">
-        <v>0.9992082917543857</v>
+        <v>0.9998209100000001</v>
       </c>
       <c r="R19">
-        <v>0.9997031160526313</v>
+        <v>0.9999328325000001</v>
       </c>
       <c r="S19">
-        <v>0.9997031160526313</v>
+        <v>0.9999328325000001</v>
       </c>
       <c r="T19">
-        <v>0.9998944456140348</v>
+        <v>0.9999761116666668</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.012938931578947</v>
+        <v>0.9963732834246577</v>
       </c>
       <c r="D20">
-        <v>0.984316445263158</v>
+        <v>1.004396027123288</v>
       </c>
       <c r="E20">
-        <v>0.9941186657894736</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="F20">
-        <v>0.9941186657894736</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="G20">
-        <v>1.023525342105263</v>
+        <v>0.9934059697260273</v>
       </c>
       <c r="H20">
-        <v>0.9941186657894736</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="I20">
-        <v>1.023525342105263</v>
+        <v>0.9934059697260273</v>
       </c>
       <c r="J20">
-        <v>0.9941186657894736</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="K20">
-        <v>0.9941186657894736</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="L20">
-        <v>0.9941186657894736</v>
+        <v>1.001648521095891</v>
       </c>
       <c r="M20">
-        <v>1.008822003947368</v>
+        <v>0.9975272454109589</v>
       </c>
       <c r="N20">
-        <v>1.008822003947368</v>
+        <v>0.9975272454109589</v>
       </c>
       <c r="O20">
-        <v>1.010194313157895</v>
+        <v>0.9971425914155252</v>
       </c>
       <c r="P20">
-        <v>1.00392089122807</v>
+        <v>0.9989010039726027</v>
       </c>
       <c r="Q20">
-        <v>1.00392089122807</v>
+        <v>0.9989010039726027</v>
       </c>
       <c r="R20">
-        <v>1.001470334868421</v>
+        <v>0.9995878832534246</v>
       </c>
       <c r="S20">
-        <v>1.001470334868421</v>
+        <v>0.9995878832534246</v>
       </c>
       <c r="T20">
-        <v>1.000522786052631</v>
+        <v>0.9998534739269407</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9803487537850353</v>
+        <v>0.9973873331578945</v>
       </c>
       <c r="D21">
-        <v>1.023819690784401</v>
+        <v>1.003166876315789</v>
       </c>
       <c r="E21">
-        <v>1.008932394824936</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="F21">
-        <v>1.008932394824936</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="G21">
-        <v>0.9642704642877111</v>
+        <v>0.9952496973684208</v>
       </c>
       <c r="H21">
-        <v>1.008932394824936</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="I21">
-        <v>0.9642704642877111</v>
+        <v>0.9952496973684208</v>
       </c>
       <c r="J21">
-        <v>1.008932394824936</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="K21">
-        <v>1.008932394824936</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="L21">
-        <v>1.008932394824936</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="M21">
-        <v>0.9866014295563237</v>
+        <v>0.9982186431578944</v>
       </c>
       <c r="N21">
-        <v>0.9866014295563237</v>
+        <v>0.9982186431578944</v>
       </c>
       <c r="O21">
-        <v>0.9845172042992276</v>
+        <v>0.9979415398245611</v>
       </c>
       <c r="P21">
-        <v>0.9940450846458612</v>
+        <v>0.9992082917543857</v>
       </c>
       <c r="Q21">
-        <v>0.9940450846458612</v>
+        <v>0.9992082917543857</v>
       </c>
       <c r="R21">
-        <v>0.9977669121906299</v>
+        <v>0.9997031160526313</v>
       </c>
       <c r="S21">
-        <v>0.9977669121906299</v>
+        <v>0.9997031160526313</v>
       </c>
       <c r="T21">
-        <v>0.9992060155553261</v>
+        <v>0.9998944456140348</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9947233633050211</v>
+        <v>1.012938931578947</v>
       </c>
       <c r="D22">
-        <v>1.006395918014905</v>
+        <v>0.984316445263158</v>
       </c>
       <c r="E22">
-        <v>1.002398478429737</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="F22">
-        <v>1.002398478429737</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="G22">
-        <v>0.9904061168911404</v>
+        <v>1.023525342105263</v>
       </c>
       <c r="H22">
-        <v>1.002398478429737</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="I22">
-        <v>0.9904061168911404</v>
+        <v>1.023525342105263</v>
       </c>
       <c r="J22">
-        <v>1.002398478429737</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="K22">
-        <v>1.002398478429737</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="L22">
-        <v>1.002398478429737</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="M22">
-        <v>0.9964022976604389</v>
+        <v>1.008822003947368</v>
       </c>
       <c r="N22">
-        <v>0.9964022976604389</v>
+        <v>1.008822003947368</v>
       </c>
       <c r="O22">
-        <v>0.9958426528752996</v>
+        <v>1.010194313157895</v>
       </c>
       <c r="P22">
-        <v>0.9984010245835383</v>
+        <v>1.00392089122807</v>
       </c>
       <c r="Q22">
-        <v>0.9984010245835383</v>
+        <v>1.00392089122807</v>
       </c>
       <c r="R22">
-        <v>0.9994003880450881</v>
+        <v>1.001470334868421</v>
       </c>
       <c r="S22">
-        <v>0.9994003880450881</v>
+        <v>1.001470334868421</v>
       </c>
       <c r="T22">
-        <v>0.9997868055833797</v>
+        <v>1.000522786052631</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9997357961980129</v>
+        <v>0.9803487537850353</v>
       </c>
       <c r="D23">
-        <v>1.000320241021014</v>
+        <v>1.023819690784401</v>
       </c>
       <c r="E23">
-        <v>1.000120094216191</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="F23">
-        <v>1.000120094216191</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="G23">
-        <v>0.9995196357321919</v>
+        <v>0.9642704642877111</v>
       </c>
       <c r="H23">
-        <v>1.000120094216191</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="I23">
-        <v>0.9995196357321919</v>
+        <v>0.9642704642877111</v>
       </c>
       <c r="J23">
-        <v>1.000120094216191</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="K23">
-        <v>1.000120094216191</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="L23">
-        <v>1.000120094216191</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="M23">
-        <v>0.9998198649741916</v>
+        <v>0.9866014295563237</v>
       </c>
       <c r="N23">
-        <v>0.9998198649741916</v>
+        <v>0.9866014295563237</v>
       </c>
       <c r="O23">
-        <v>0.9997918420487988</v>
+        <v>0.9845172042992276</v>
       </c>
       <c r="P23">
-        <v>0.9999199413881916</v>
+        <v>0.9940450846458612</v>
       </c>
       <c r="Q23">
-        <v>0.9999199413881916</v>
+        <v>0.9940450846458612</v>
       </c>
       <c r="R23">
-        <v>0.9999699795951915</v>
+        <v>0.9977669121906299</v>
       </c>
       <c r="S23">
-        <v>0.9999699795951915</v>
+        <v>0.9977669121906299</v>
       </c>
       <c r="T23">
-        <v>0.9999893259332988</v>
+        <v>0.9992060155553261</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9999283311509325</v>
+        <v>0.9947233633050211</v>
       </c>
       <c r="D24">
-        <v>1.000086877963037</v>
+        <v>1.006395918014905</v>
       </c>
       <c r="E24">
-        <v>1.000032580109521</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="F24">
-        <v>1.000032580109521</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="G24">
-        <v>0.9998696851522245</v>
+        <v>0.9904061168911404</v>
       </c>
       <c r="H24">
-        <v>1.000032580109521</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="I24">
-        <v>0.9998696851522245</v>
+        <v>0.9904061168911404</v>
       </c>
       <c r="J24">
-        <v>1.000032580109521</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="K24">
-        <v>1.000032580109521</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="L24">
-        <v>1.000032580109521</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="M24">
-        <v>0.9999511326308725</v>
+        <v>0.9964022976604389</v>
       </c>
       <c r="N24">
-        <v>0.9999511326308725</v>
+        <v>0.9964022976604389</v>
       </c>
       <c r="O24">
-        <v>0.9999435321375593</v>
+        <v>0.9958426528752996</v>
       </c>
       <c r="P24">
-        <v>0.999978281790422</v>
+        <v>0.9984010245835383</v>
       </c>
       <c r="Q24">
-        <v>0.999978281790422</v>
+        <v>0.9984010245835383</v>
       </c>
       <c r="R24">
-        <v>0.9999918563701966</v>
+        <v>0.9994003880450881</v>
       </c>
       <c r="S24">
-        <v>0.9999918563701966</v>
+        <v>0.9994003880450881</v>
       </c>
       <c r="T24">
-        <v>0.9999971057657926</v>
+        <v>0.9997868055833797</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.025136069581616</v>
+        <v>0.9997357961980129</v>
       </c>
       <c r="D25">
-        <v>0.969532040033978</v>
+        <v>1.000320241021014</v>
       </c>
       <c r="E25">
-        <v>0.988574515860675</v>
+        <v>1.000120094216191</v>
       </c>
       <c r="F25">
-        <v>0.988574515860675</v>
+        <v>1.000120094216191</v>
       </c>
       <c r="G25">
-        <v>1.045701945667218</v>
+        <v>0.9995196357321919</v>
       </c>
       <c r="H25">
-        <v>0.988574515860675</v>
+        <v>1.000120094216191</v>
       </c>
       <c r="I25">
-        <v>1.045701945667218</v>
+        <v>0.9995196357321919</v>
       </c>
       <c r="J25">
-        <v>0.988574515860675</v>
+        <v>1.000120094216191</v>
       </c>
       <c r="K25">
-        <v>0.988574515860675</v>
+        <v>1.000120094216191</v>
       </c>
       <c r="L25">
-        <v>0.988574515860675</v>
+        <v>1.000120094216191</v>
       </c>
       <c r="M25">
-        <v>1.017138230763946</v>
+        <v>0.9998198649741916</v>
       </c>
       <c r="N25">
-        <v>1.017138230763946</v>
+        <v>0.9998198649741916</v>
       </c>
       <c r="O25">
-        <v>1.019804177036503</v>
+        <v>0.9997918420487988</v>
       </c>
       <c r="P25">
-        <v>1.007616992462856</v>
+        <v>0.9999199413881916</v>
       </c>
       <c r="Q25">
-        <v>1.007616992462856</v>
+        <v>0.9999199413881916</v>
       </c>
       <c r="R25">
-        <v>1.002856373312311</v>
+        <v>0.9999699795951915</v>
       </c>
       <c r="S25">
-        <v>1.002856373312311</v>
+        <v>0.9999699795951915</v>
       </c>
       <c r="T25">
-        <v>1.001015600477473</v>
+        <v>0.9999893259332988</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.006699670278214</v>
+        <v>0.9999283311509325</v>
       </c>
       <c r="D26">
-        <v>0.9918791945001936</v>
+        <v>1.000086877963037</v>
       </c>
       <c r="E26">
-        <v>0.9969546944137677</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="F26">
-        <v>0.9969546944137677</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="G26">
-        <v>1.012181208237609</v>
+        <v>0.9998696851522245</v>
       </c>
       <c r="H26">
-        <v>0.9969546944137677</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="I26">
-        <v>1.012181208237609</v>
+        <v>0.9998696851522245</v>
       </c>
       <c r="J26">
-        <v>0.9969546944137677</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="K26">
-        <v>0.9969546944137677</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="L26">
-        <v>0.9969546944137677</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="M26">
-        <v>1.004567951325689</v>
+        <v>0.9999511326308725</v>
       </c>
       <c r="N26">
-        <v>1.004567951325689</v>
+        <v>0.9999511326308725</v>
       </c>
       <c r="O26">
-        <v>1.005278524309864</v>
+        <v>0.9999435321375593</v>
       </c>
       <c r="P26">
-        <v>1.002030199021715</v>
+        <v>0.999978281790422</v>
       </c>
       <c r="Q26">
-        <v>1.002030199021715</v>
+        <v>0.999978281790422</v>
       </c>
       <c r="R26">
-        <v>1.000761322869728</v>
+        <v>0.9999918563701966</v>
       </c>
       <c r="S26">
-        <v>1.000761322869728</v>
+        <v>0.9999918563701966</v>
       </c>
       <c r="T26">
-        <v>1.000270692709553</v>
+        <v>0.9999971057657926</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9994364608848769</v>
+        <v>1.025136069581616</v>
       </c>
       <c r="D27">
-        <v>1.000683081276603</v>
+        <v>0.969532040033978</v>
       </c>
       <c r="E27">
-        <v>1.000256170142117</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="F27">
-        <v>1.000256170142117</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="G27">
-        <v>0.9989753889113621</v>
+        <v>1.045701945667218</v>
       </c>
       <c r="H27">
-        <v>1.000256170142117</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="I27">
-        <v>0.9989753889113621</v>
+        <v>1.045701945667218</v>
       </c>
       <c r="J27">
-        <v>1.000256170142117</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="K27">
-        <v>1.000256170142117</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="L27">
-        <v>1.000256170142117</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="M27">
-        <v>0.9996157795267395</v>
+        <v>1.017138230763946</v>
       </c>
       <c r="N27">
-        <v>0.9996157795267395</v>
+        <v>1.017138230763946</v>
       </c>
       <c r="O27">
-        <v>0.9995560066461188</v>
+        <v>1.019804177036503</v>
       </c>
       <c r="P27">
-        <v>0.9998292430651987</v>
+        <v>1.007616992462856</v>
       </c>
       <c r="Q27">
-        <v>0.9998292430651987</v>
+        <v>1.007616992462856</v>
       </c>
       <c r="R27">
-        <v>0.9999359748344283</v>
+        <v>1.002856373312311</v>
       </c>
       <c r="S27">
-        <v>0.9999359748344283</v>
+        <v>1.002856373312311</v>
       </c>
       <c r="T27">
-        <v>0.9999772402498653</v>
+        <v>1.001015600477473</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.001845963894843</v>
+        <v>1.006699670278214</v>
       </c>
       <c r="D28">
-        <v>0.9977624624507604</v>
+        <v>0.9918791945001936</v>
       </c>
       <c r="E28">
-        <v>0.9991609279852528</v>
+        <v>0.9969546944137677</v>
       </c>
       <c r="F28">
-        <v>0.9991609279852528</v>
+        <v>0.9969546944137677</v>
       </c>
       <c r="G28">
-        <v>1.003356299931753</v>
+        <v>1.012181208237609</v>
       </c>
       <c r="H28">
-        <v>0.9991609279852528</v>
+        <v>0.9969546944137677</v>
       </c>
       <c r="I28">
-        <v>1.003356299931753</v>
+        <v>1.012181208237609</v>
       </c>
       <c r="J28">
-        <v>0.9991609279852528</v>
+        <v>0.9969546944137677</v>
       </c>
       <c r="K28">
-        <v>0.9991609279852528</v>
+        <v>0.9969546944137677</v>
       </c>
       <c r="L28">
-        <v>0.9991609279852528</v>
+        <v>0.9969546944137677</v>
       </c>
       <c r="M28">
-        <v>1.001258613958503</v>
+        <v>1.004567951325689</v>
       </c>
       <c r="N28">
-        <v>1.001258613958503</v>
+        <v>1.004567951325689</v>
       </c>
       <c r="O28">
-        <v>1.001454397270616</v>
+        <v>1.005278524309864</v>
       </c>
       <c r="P28">
-        <v>1.000559385300753</v>
+        <v>1.002030199021715</v>
       </c>
       <c r="Q28">
-        <v>1.000559385300753</v>
+        <v>1.002030199021715</v>
       </c>
       <c r="R28">
-        <v>1.000209770971878</v>
+        <v>1.000761322869728</v>
       </c>
       <c r="S28">
-        <v>1.000209770971878</v>
+        <v>1.000761322869728</v>
       </c>
       <c r="T28">
-        <v>1.000074585038852</v>
+        <v>1.000270692709553</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9994364608848769</v>
+      </c>
+      <c r="D29">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="E29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="F29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="G29">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="H29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="I29">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="J29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="K29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="L29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="M29">
+        <v>0.9996157795267395</v>
+      </c>
+      <c r="N29">
+        <v>0.9996157795267395</v>
+      </c>
+      <c r="O29">
+        <v>0.9995560066461188</v>
+      </c>
+      <c r="P29">
+        <v>0.9998292430651987</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998292430651987</v>
+      </c>
+      <c r="R29">
+        <v>0.9999359748344283</v>
+      </c>
+      <c r="S29">
+        <v>0.9999359748344283</v>
+      </c>
+      <c r="T29">
+        <v>0.9999772402498653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001845963894843</v>
+      </c>
+      <c r="D30">
+        <v>0.9977624624507604</v>
+      </c>
+      <c r="E30">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="F30">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="G30">
+        <v>1.003356299931753</v>
+      </c>
+      <c r="H30">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="I30">
+        <v>1.003356299931753</v>
+      </c>
+      <c r="J30">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="K30">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="L30">
+        <v>0.9991609279852528</v>
+      </c>
+      <c r="M30">
+        <v>1.001258613958503</v>
+      </c>
+      <c r="N30">
+        <v>1.001258613958503</v>
+      </c>
+      <c r="O30">
+        <v>1.001454397270616</v>
+      </c>
+      <c r="P30">
+        <v>1.000559385300753</v>
+      </c>
+      <c r="Q30">
+        <v>1.000559385300753</v>
+      </c>
+      <c r="R30">
+        <v>1.000209770971878</v>
+      </c>
+      <c r="S30">
+        <v>1.000209770971878</v>
+      </c>
+      <c r="T30">
+        <v>1.000074585038852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.003350587065245</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9959386793346232</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9984770051812052</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9984770051812052</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.00609198441663</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9984770051812052</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.00609198441663</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9984770051812052</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9984770051812052</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9984770051812052</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.002284494798917</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.002284494798917</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.002639858887693</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.001015331593013</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.001015331593013</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000380749990061</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000380749990061</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000135377726685</v>
       </c>
     </row>
